--- a/02. Appendix - Code/04. Excel/Conclusion Plots.xlsx
+++ b/02. Appendix - Code/04. Excel/Conclusion Plots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\00. EMAP\189. Big Data\05. Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\SCM-and-NN\02. Appendix - Code\04. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8505DD-E4E9-4781-8DE7-C9F7A3BEAF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDACC43-FF8E-4509-95FD-0CB76CC73E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A23EE7E-FFB7-4D83-B9A0-FB2B2ADC67E0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A23EE7E-FFB7-4D83-B9A0-FB2B2ADC67E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="29">
   <si>
     <t>Chart the Auto Size</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Auto SD</t>
+  </si>
+  <si>
+    <t>NN 5</t>
+  </si>
+  <si>
+    <t>Z -2019</t>
   </si>
 </sst>
 </file>
@@ -224,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -232,10 +238,11 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,7 +315,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$32:$D$32</c:f>
+              <c:f>Sheet1!$C$38:$D$38</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -334,7 +341,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -364,7 +371,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$32:$K$32</c:f>
+              <c:f>Sheet1!$E$38:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -404,7 +411,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$D$33</c:f>
+              <c:f>Sheet1!$C$39:$D$39</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -430,7 +437,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -460,7 +467,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$33:$K$33</c:f>
+              <c:f>Sheet1!$E$39:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -500,7 +507,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$34:$D$34</c:f>
+              <c:f>Sheet1!$C$40:$D$40</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -526,7 +533,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -556,7 +563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$34:$K$34</c:f>
+              <c:f>Sheet1!$E$40:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -596,7 +603,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$35:$D$35</c:f>
+              <c:f>Sheet1!$C$41:$D$41</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -622,7 +629,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -652,7 +659,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$35:$K$35</c:f>
+              <c:f>Sheet1!$E$41:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -692,7 +699,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$36:$D$36</c:f>
+              <c:f>Sheet1!$C$42:$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -718,7 +725,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -748,7 +755,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$K$36</c:f>
+              <c:f>Sheet1!$E$42:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -788,7 +795,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$37:$D$37</c:f>
+              <c:f>Sheet1!$C$43:$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -814,7 +821,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -844,7 +851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$37:$K$37</c:f>
+              <c:f>Sheet1!$E$43:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1154,7 +1161,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$40:$D$40</c:f>
+              <c:f>Sheet1!$C$46:$D$46</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1180,7 +1187,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1210,7 +1217,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$40:$K$40</c:f>
+              <c:f>Sheet1!$E$46:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1250,7 +1257,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$41:$D$41</c:f>
+              <c:f>Sheet1!$C$47:$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1276,7 +1283,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1306,7 +1313,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$41:$K$41</c:f>
+              <c:f>Sheet1!$E$47:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1346,7 +1353,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$42:$D$42</c:f>
+              <c:f>Sheet1!$C$48:$D$48</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1372,7 +1379,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1402,7 +1409,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$42:$K$42</c:f>
+              <c:f>Sheet1!$E$48:$K$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1442,7 +1449,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$45:$D$45</c:f>
+              <c:f>Sheet1!$C$51:$D$51</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1468,7 +1475,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1498,7 +1505,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$45:$K$45</c:f>
+              <c:f>Sheet1!$E$51:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1538,7 +1545,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$46:$D$46</c:f>
+              <c:f>Sheet1!$C$52:$D$52</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1564,7 +1571,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1594,7 +1601,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$46:$K$46</c:f>
+              <c:f>Sheet1!$E$52:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1634,7 +1641,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$47:$D$47</c:f>
+              <c:f>Sheet1!$C$53:$D$53</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1660,7 +1667,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1690,7 +1697,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$47:$K$47</c:f>
+              <c:f>Sheet1!$E$53:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2000,7 +2007,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$50:$D$50</c:f>
+              <c:f>Sheet1!$C$56:$D$56</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2026,7 +2033,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2056,7 +2063,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$50:$K$50</c:f>
+              <c:f>Sheet1!$E$56:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2096,7 +2103,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$51:$D$51</c:f>
+              <c:f>Sheet1!$C$57:$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2122,7 +2129,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2152,7 +2159,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$51:$K$51</c:f>
+              <c:f>Sheet1!$E$57:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2192,7 +2199,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$52:$D$52</c:f>
+              <c:f>Sheet1!$C$58:$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2218,7 +2225,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2248,7 +2255,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$52:$K$52</c:f>
+              <c:f>Sheet1!$E$58:$K$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2288,7 +2295,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$55:$D$55</c:f>
+              <c:f>Sheet1!$C$61:$D$61</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2314,7 +2321,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2344,7 +2351,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$55:$K$55</c:f>
+              <c:f>Sheet1!$E$61:$K$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2384,7 +2391,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$56:$D$56</c:f>
+              <c:f>Sheet1!$C$62:$D$62</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2410,7 +2417,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2440,7 +2447,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$56:$K$56</c:f>
+              <c:f>Sheet1!$E$62:$K$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2480,7 +2487,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$57:$D$57</c:f>
+              <c:f>Sheet1!$C$63:$D$63</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2506,7 +2513,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$K$31</c:f>
+              <c:f>Sheet1!$E$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2536,7 +2543,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$57:$K$57</c:f>
+              <c:f>Sheet1!$E$63:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2871,7 +2878,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$40:$D$40</c:f>
+              <c:f>Sheet1!$C$46:$D$46</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2897,7 +2904,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2927,7 +2934,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$40:$K$40</c:f>
+              <c:f>Sheet1!$E$46:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2967,7 +2974,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$41:$D$41</c:f>
+              <c:f>Sheet1!$C$47:$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2993,7 +3000,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3023,7 +3030,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$41:$K$41</c:f>
+              <c:f>Sheet1!$E$47:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3063,7 +3070,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$42:$D$42</c:f>
+              <c:f>Sheet1!$C$48:$D$48</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3089,7 +3096,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3119,7 +3126,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$42:$K$42</c:f>
+              <c:f>Sheet1!$E$48:$K$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3159,7 +3166,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$43:$D$43</c:f>
+              <c:f>Sheet1!$C$49:$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3185,7 +3192,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3215,7 +3222,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$43:$K$43</c:f>
+              <c:f>Sheet1!$E$49:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3255,7 +3262,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$44:$D$44</c:f>
+              <c:f>Sheet1!$C$50:$D$50</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3281,7 +3288,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3311,7 +3318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$44:$K$44</c:f>
+              <c:f>Sheet1!$E$50:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3351,7 +3358,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$45:$D$45</c:f>
+              <c:f>Sheet1!$C$51:$D$51</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3377,7 +3384,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3407,7 +3414,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$45:$K$45</c:f>
+              <c:f>Sheet1!$E$51:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3802,7 +3809,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$50:$D$50</c:f>
+              <c:f>Sheet1!$C$56:$D$56</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3828,7 +3835,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3858,7 +3865,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$50:$K$50</c:f>
+              <c:f>Sheet1!$E$56:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3898,7 +3905,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$51:$D$51</c:f>
+              <c:f>Sheet1!$C$57:$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3924,7 +3931,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3954,7 +3961,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$51:$K$51</c:f>
+              <c:f>Sheet1!$E$57:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3994,7 +4001,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$52:$D$52</c:f>
+              <c:f>Sheet1!$C$58:$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4020,7 +4027,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4050,7 +4057,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$52:$K$52</c:f>
+              <c:f>Sheet1!$E$58:$K$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4090,7 +4097,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$53:$D$53</c:f>
+              <c:f>Sheet1!$C$59:$D$59</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4116,7 +4123,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4146,7 +4153,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$53:$K$53</c:f>
+              <c:f>Sheet1!$E$59:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4186,7 +4193,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$54:$D$54</c:f>
+              <c:f>Sheet1!$C$60:$D$60</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4212,7 +4219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4242,7 +4249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$54:$K$54</c:f>
+              <c:f>Sheet1!$E$60:$K$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4282,7 +4289,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$55:$D$55</c:f>
+              <c:f>Sheet1!$C$61:$D$61</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4308,7 +4315,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$K$39</c:f>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4338,7 +4345,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$55:$K$55</c:f>
+              <c:f>Sheet1!$E$61:$K$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4708,7 +4715,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$75</c:f>
+              <c:f>Sheet1!$D$92</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4731,7 +4738,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$74:$K$74</c:f>
+              <c:f>Sheet1!$F$91:$K$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4758,7 +4765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$75:$K$75</c:f>
+              <c:f>Sheet1!$F$92:$K$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4795,7 +4802,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$76</c:f>
+              <c:f>Sheet1!$D$93</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4818,7 +4825,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$74:$K$74</c:f>
+              <c:f>Sheet1!$F$91:$K$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4845,7 +4852,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$76:$K$76</c:f>
+              <c:f>Sheet1!$F$93:$K$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4882,7 +4889,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$77</c:f>
+              <c:f>Sheet1!$D$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4905,7 +4912,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$74:$K$74</c:f>
+              <c:f>Sheet1!$F$91:$K$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4932,7 +4939,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$77:$K$77</c:f>
+              <c:f>Sheet1!$F$94:$K$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5124,6 +5131,937 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>NN Model 5 - Prediction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$66:$D$66</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>NN 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Central</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$66:$K$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.3706378323498534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7888672409899904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.1356533447099606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17035754696997071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7348173497199708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14.948967558399902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.355572657360106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7883-441C-A743-7E8B08FE1214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$67:$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>NN 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$67:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2445970981933741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.9149079751464697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.261694078866441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.9556831871865086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3912233844365085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-22.075008292556383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.229531923203623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7883-441C-A743-7E8B08FE1214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$68:$D$68</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>NN 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>+1RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$68:$K$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.496678566506333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3371734931664889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9903873894465187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2963982811264501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.860858083876451</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.8229268242434227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.481613391516589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7883-441C-A743-7E8B08FE1214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$69:$D$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>NN 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$69:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-4.8814436359631053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-17.040948709302949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-19.38773481302292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-14.081723921342988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.5172641185929869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-29.201049026712862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.103491189047144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7883-441C-A743-7E8B08FE1214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$70:$D$70</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>NN 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>+2RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$70:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23.622719300662812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.463214227322968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1164281236029971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.422439015282929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.98689881803293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.69688609008694336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.607654125673065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7883-441C-A743-7E8B08FE1214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$71:$D$71</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Auto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$45:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$71:$K$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.7676326642517899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7676326642517899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7676326642517899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7676326642517899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7676326642517899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7676326642517899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7676326642517899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7883-441C-A743-7E8B08FE1214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="788923136"/>
+        <c:axId val="788922808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="788923136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2021"/>
+          <c:min val="2015"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788922808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="788922808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Annual Value</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Auto</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788923136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5399,6 +6337,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8476,6 +9454,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8507,7 +10001,7 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8543,7 +10037,7 @@
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8581,7 +10075,7 @@
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8613,13 +10107,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>33336</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8649,13 +10143,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>538163</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8685,16 +10179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>147636</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>237282</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>155760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>337296</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>97210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8714,6 +10208,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>233922</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>170050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2D983C-6A1A-4011-87D3-B4BC0C662764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9019,10 +10551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E125630D-368F-4551-A35E-6C46249AFE61}">
-  <dimension ref="B1:T91"/>
+  <dimension ref="B1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9044,21 +10576,21 @@
       </c>
     </row>
     <row r="3" spans="3:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="5" spans="3:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
@@ -9480,2524 +11012,3398 @@
         <v>11516692233.449673</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1359986329653.6299</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1384706034234.29</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1414024429812.3501</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1460245466275.8201</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1497513941864.1299</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1476071060134.8701</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1566717975684.52</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
+        <f>E16-E$6</f>
+        <v>9370637832.3498535</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17:K17" si="14">F16-F$6</f>
+        <v>-2788867240.9899902</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="14"/>
+        <v>-5135653344.7099609</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="14"/>
+        <v>170357546.9699707</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="14"/>
+        <v>5734817349.7199707</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="14"/>
+        <v>-14948967558.399902</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="14"/>
+        <v>42355572657.360107</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>7126040734.1564789</v>
+      </c>
+      <c r="F18" s="10">
+        <v>7126040734.1564789</v>
+      </c>
+      <c r="G18" s="10">
+        <v>7126040734.1564789</v>
+      </c>
+      <c r="H18" s="10">
+        <v>7126040734.1564789</v>
+      </c>
+      <c r="I18" s="10">
+        <v>7126040734.1564789</v>
+      </c>
+      <c r="J18" s="10">
+        <v>7126040734.1564789</v>
+      </c>
+      <c r="K18" s="10">
+        <v>7126040734.1564789</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E20" s="6">
         <v>2015</v>
       </c>
-      <c r="F17" s="6">
-        <f>E17+1</f>
+      <c r="F20" s="6">
+        <f>E20+1</f>
         <v>2016</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" ref="G17:K17" si="14">F17+1</f>
+      <c r="G20" s="6">
+        <f t="shared" ref="G20:K20" si="15">F20+1</f>
         <v>2017</v>
       </c>
-      <c r="H17" s="6">
-        <f t="shared" si="14"/>
+      <c r="H20" s="6">
+        <f t="shared" si="15"/>
         <v>2018</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" si="14"/>
+      <c r="I20" s="6">
+        <f t="shared" si="15"/>
         <v>2019</v>
       </c>
-      <c r="J17" s="6">
-        <f t="shared" si="14"/>
+      <c r="J20" s="6">
+        <f t="shared" si="15"/>
         <v>2020</v>
       </c>
-      <c r="K17" s="6">
-        <f t="shared" si="14"/>
+      <c r="K20" s="6">
+        <f t="shared" si="15"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="5" t="str">
+        <f>C6</f>
+        <v>Acutal</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E21" s="5">
         <f>E6/10^9</f>
         <v>1350.6156918212801</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:K18" si="15">F6/10^9</f>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21:K21" si="16">F6/10^9</f>
         <v>1387.4949014752801</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" si="15"/>
+      <c r="G21" s="5">
+        <f t="shared" si="16"/>
         <v>1419.1600831570602</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="15"/>
+      <c r="H21" s="5">
+        <f t="shared" si="16"/>
         <v>1460.0751087288502</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="15"/>
+      <c r="I21" s="5">
+        <f t="shared" si="16"/>
         <v>1491.7791245144099</v>
       </c>
-      <c r="J18" s="5">
-        <f t="shared" si="15"/>
+      <c r="J21" s="5">
+        <f t="shared" si="16"/>
         <v>1491.0200276932701</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="15"/>
+      <c r="K21" s="5">
+        <f t="shared" si="16"/>
         <v>1524.3624030271599</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" ref="E19:K19" si="16">E7/10^9</f>
-        <v>1445.2575562281299</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="16"/>
-        <v>1492.79346028233</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="16"/>
-        <v>1550.8987602422801</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="16"/>
-        <v>1605.8552847006899</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="16"/>
-        <v>1651.1637852439399</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="16"/>
-        <v>1597.2360666186898</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="16"/>
-        <v>1698.9988540894299</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" ref="E20:K20" si="17">E8/10^9</f>
-        <v>94.641864406849848</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="17"/>
-        <v>105.29855880705004</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="17"/>
-        <v>131.73867708521996</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="17"/>
-        <v>145.78017597183984</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="17"/>
-        <v>159.38466072953003</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="17"/>
-        <v>106.21603892541992</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="17"/>
-        <v>174.63645106227003</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" ref="E21:K21" si="18">E9/10^9</f>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="18"/>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="18"/>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="18"/>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="18"/>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="18"/>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="18"/>
-        <v>217.94494717703367</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C22" s="5" t="s">
-        <v>7</v>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="5" t="str">
+        <f t="shared" ref="C22:C33" si="17">C7</f>
+        <v>SCM</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" ref="E22:K22" si="19">E10/10^9</f>
-        <v>1355.1886474339799</v>
+        <f t="shared" ref="E22:K22" si="18">E7/10^9</f>
+        <v>1445.2575562281299</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="19"/>
-        <v>1389.43240904409</v>
+        <f t="shared" si="18"/>
+        <v>1492.79346028233</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="19"/>
-        <v>1429.17140346476</v>
+        <f t="shared" si="18"/>
+        <v>1550.8987602422801</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="19"/>
-        <v>1471.4895516458701</v>
+        <f t="shared" si="18"/>
+        <v>1605.8552847006899</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="19"/>
-        <v>1508.489624603</v>
+        <f t="shared" si="18"/>
+        <v>1651.1637852439399</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="19"/>
-        <v>1487.2196937082699</v>
+        <f t="shared" si="18"/>
+        <v>1597.2360666186898</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="19"/>
-        <v>1561.0930001230602</v>
+        <f t="shared" si="18"/>
+        <v>1698.9988540894299</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C23" s="5" t="s">
-        <v>7</v>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>SCM</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" ref="E23:K23" si="20">E11/10^9</f>
-        <v>4.5729556126999515</v>
+        <f t="shared" ref="E23:K23" si="19">E8/10^9</f>
+        <v>94.641864406849848</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="20"/>
-        <v>1.9375075688100587</v>
+        <f t="shared" si="19"/>
+        <v>105.29855880705004</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="20"/>
-        <v>10.01132030769995</v>
+        <f t="shared" si="19"/>
+        <v>131.73867708521996</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="20"/>
-        <v>11.41444291702002</v>
+        <f t="shared" si="19"/>
+        <v>145.78017597183984</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="20"/>
-        <v>16.710500088590088</v>
+        <f t="shared" si="19"/>
+        <v>159.38466072953003</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="20"/>
-        <v>-3.800333985</v>
+        <f t="shared" si="19"/>
+        <v>106.21603892541992</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="20"/>
-        <v>36.730597095900144</v>
+        <f t="shared" si="19"/>
+        <v>174.63645106227003</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="5" t="s">
-        <v>7</v>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>SCM</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" ref="E24:K24" si="21">E12/10^9</f>
-        <v>9.3788352155265002</v>
+        <f t="shared" ref="E24:K24" si="20">E9/10^9</f>
+        <v>217.94494717703367</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="21"/>
-        <v>9.3788352155265002</v>
+        <f t="shared" si="20"/>
+        <v>217.94494717703367</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="21"/>
-        <v>9.3788352155265002</v>
+        <f t="shared" si="20"/>
+        <v>217.94494717703367</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="21"/>
-        <v>9.3788352155265002</v>
+        <f t="shared" si="20"/>
+        <v>217.94494717703367</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="21"/>
-        <v>9.3788352155265002</v>
+        <f t="shared" si="20"/>
+        <v>217.94494717703367</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="21"/>
-        <v>9.3788352155265002</v>
+        <f t="shared" si="20"/>
+        <v>217.94494717703367</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="21"/>
-        <v>9.3788352155265002</v>
+        <f t="shared" si="20"/>
+        <v>217.94494717703367</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C25" s="5" t="s">
-        <v>8</v>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>NN 1</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E25:K25" si="22">E13/10^9</f>
-        <v>1353.5006775743</v>
+        <f t="shared" ref="E25:K25" si="21">E10/10^9</f>
+        <v>1355.1886474339799</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="22"/>
-        <v>1370.89181053891</v>
+        <f t="shared" si="21"/>
+        <v>1389.43240904409</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="22"/>
-        <v>1427.67963324785</v>
+        <f t="shared" si="21"/>
+        <v>1429.17140346476</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="22"/>
-        <v>1489.84609595796</v>
+        <f t="shared" si="21"/>
+        <v>1471.4895516458701</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="22"/>
-        <v>1543.4940499695301</v>
+        <f t="shared" si="21"/>
+        <v>1508.489624603</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="22"/>
-        <v>1551.32582751729</v>
+        <f t="shared" si="21"/>
+        <v>1487.2196937082699</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="22"/>
-        <v>1632.44080279066</v>
+        <f t="shared" si="21"/>
+        <v>1561.0930001230602</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C26" s="5" t="s">
-        <v>8</v>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C26" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>NN 1</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" ref="E26:K26" si="23">E14/10^9</f>
-        <v>2.8849857530200196</v>
+        <f t="shared" ref="E26:K26" si="22">E11/10^9</f>
+        <v>4.5729556126999515</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="23"/>
-        <v>-16.603090936370116</v>
+        <f t="shared" si="22"/>
+        <v>1.9375075688100587</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="23"/>
-        <v>8.5195500907900392</v>
+        <f t="shared" si="22"/>
+        <v>10.01132030769995</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="23"/>
-        <v>29.770987229109863</v>
+        <f t="shared" si="22"/>
+        <v>11.41444291702002</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="23"/>
-        <v>51.714925455120117</v>
+        <f t="shared" si="22"/>
+        <v>16.710500088590088</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="23"/>
-        <v>60.305799824020021</v>
+        <f t="shared" si="22"/>
+        <v>-3.800333985</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="23"/>
-        <v>108.0783997635</v>
+        <f t="shared" si="22"/>
+        <v>36.730597095900144</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C27" s="5" t="s">
-        <v>8</v>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>NN 1</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:K27" si="24">E15/10^9</f>
+        <f t="shared" ref="E27:K27" si="23">E12/10^9</f>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="23"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="23"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="23"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="23"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="23"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="23"/>
+        <v>9.3788352155265002</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>NN 2</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" ref="E28:K28" si="24">E13/10^9</f>
+        <v>1353.5006775743</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="24"/>
+        <v>1370.89181053891</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="24"/>
+        <v>1427.67963324785</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="24"/>
+        <v>1489.84609595796</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="24"/>
+        <v>1543.4940499695301</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="24"/>
+        <v>1551.32582751729</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="24"/>
+        <v>1632.44080279066</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>NN 2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" ref="E29:K29" si="25">E14/10^9</f>
+        <v>2.8849857530200196</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="25"/>
+        <v>-16.603090936370116</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="25"/>
+        <v>8.5195500907900392</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="25"/>
+        <v>29.770987229109863</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="25"/>
+        <v>51.714925455120117</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="25"/>
+        <v>60.305799824020021</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="25"/>
+        <v>108.0783997635</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>NN 2</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" ref="E30:K30" si="26">E15/10^9</f>
         <v>11.516692233449673</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="24"/>
+      <c r="F30" s="5">
+        <f t="shared" si="26"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="24"/>
+      <c r="G30" s="5">
+        <f t="shared" si="26"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="H27" s="5">
-        <f t="shared" si="24"/>
+      <c r="H30" s="5">
+        <f t="shared" si="26"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="I27" s="5">
-        <f t="shared" si="24"/>
+      <c r="I30" s="5">
+        <f t="shared" si="26"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="J27" s="5">
-        <f t="shared" si="24"/>
+      <c r="J30" s="5">
+        <f t="shared" si="26"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="K27" s="5">
-        <f t="shared" si="24"/>
+      <c r="K30" s="5">
+        <f t="shared" si="26"/>
         <v>11.516692233449673</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C29" s="8" t="s">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>NN 5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" ref="E31:K31" si="27">E16/10^9</f>
+        <v>1359.9863296536298</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="27"/>
+        <v>1384.70603423429</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="27"/>
+        <v>1414.02442981235</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="27"/>
+        <v>1460.24546627582</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="27"/>
+        <v>1497.5139418641299</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="27"/>
+        <v>1476.0710601348701</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="27"/>
+        <v>1566.7179756845201</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C32" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>NN 5</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" ref="E32:K32" si="28">E17/10^9</f>
+        <v>9.3706378323498534</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="28"/>
+        <v>-2.7888672409899904</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="28"/>
+        <v>-5.1356533447099606</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="28"/>
+        <v>0.17035754696997071</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="28"/>
+        <v>5.7348173497199708</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="28"/>
+        <v>-14.948967558399902</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="28"/>
+        <v>42.355572657360106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C33" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>NN 5</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" ref="E33:K33" si="29">E18/10^9</f>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="29"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="29"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="29"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="29"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="29"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="29"/>
+        <v>7.1260407341564793</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
     </row>
-    <row r="31" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
+    <row r="37" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E37" s="6">
         <v>2015</v>
       </c>
-      <c r="F31" s="6">
-        <f>E31+1</f>
+      <c r="F37" s="6">
+        <f>E37+1</f>
         <v>2016</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" ref="G31:K31" si="25">F31+1</f>
+      <c r="G37" s="6">
+        <f t="shared" ref="G37:K37" si="30">F37+1</f>
         <v>2017</v>
       </c>
-      <c r="H31" s="6">
-        <f t="shared" si="25"/>
+      <c r="H37" s="6">
+        <f t="shared" si="30"/>
         <v>2018</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" si="25"/>
+      <c r="I37" s="6">
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
-      <c r="J31" s="6">
-        <f t="shared" si="25"/>
+      <c r="J37" s="6">
+        <f t="shared" si="30"/>
         <v>2020</v>
       </c>
-      <c r="K31" s="6">
-        <f t="shared" si="25"/>
+      <c r="K37" s="6">
+        <f t="shared" si="30"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="5">
-        <f>SUMIFS(E$18:E$27,$C$18:$C$27,$C32,$D$18:$D$27,$B32)</f>
+      <c r="E38" s="5">
+        <f>SUMIFS(E$21:E$30,$C$21:$C$30,$C38,$D$21:$D$30,$B38)</f>
         <v>94.641864406849848</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" ref="F32:K32" si="26">SUMIFS(F$18:F$27,$C$18:$C$27,$C32,$D$18:$D$27,$B32)</f>
+      <c r="F38" s="5">
+        <f t="shared" ref="F38:K38" si="31">SUMIFS(F$21:F$30,$C$21:$C$30,$C38,$D$21:$D$30,$B38)</f>
         <v>105.29855880705004</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="26"/>
+      <c r="G38" s="5">
+        <f t="shared" si="31"/>
         <v>131.73867708521996</v>
       </c>
-      <c r="H32" s="5">
-        <f t="shared" si="26"/>
+      <c r="H38" s="5">
+        <f t="shared" si="31"/>
         <v>145.78017597183984</v>
       </c>
-      <c r="I32" s="5">
-        <f t="shared" si="26"/>
+      <c r="I38" s="5">
+        <f t="shared" si="31"/>
         <v>159.38466072953003</v>
       </c>
-      <c r="J32" s="5">
-        <f t="shared" si="26"/>
+      <c r="J38" s="5">
+        <f t="shared" si="31"/>
         <v>106.21603892541992</v>
       </c>
-      <c r="K32" s="5">
-        <f t="shared" si="26"/>
+      <c r="K38" s="5">
+        <f t="shared" si="31"/>
         <v>174.63645106227003</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D39" s="5" t="str">
         <f>"-1RMSE"</f>
         <v>-1RMSE</v>
       </c>
-      <c r="E33" s="5">
-        <f>E32-SUMIFS(E$18:E$27,$C$18:$C$27,$C33,$D$18:$D$27,$B33)</f>
+      <c r="E39" s="5">
+        <f>E38-SUMIFS(E$21:E$30,$C$21:$C$30,$C39,$D$21:$D$30,$B39)</f>
         <v>-123.30308277018382</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" ref="F33:K33" si="27">F32-SUMIFS(F$18:F$27,$C$18:$C$27,$C33,$D$18:$D$27,$B33)</f>
+      <c r="F39" s="5">
+        <f t="shared" ref="F39:K39" si="32">F38-SUMIFS(F$21:F$30,$C$21:$C$30,$C39,$D$21:$D$30,$B39)</f>
         <v>-112.64638836998363</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="27"/>
+      <c r="G39" s="5">
+        <f t="shared" si="32"/>
         <v>-86.206270091813707</v>
       </c>
-      <c r="H33" s="5">
-        <f t="shared" si="27"/>
+      <c r="H39" s="5">
+        <f t="shared" si="32"/>
         <v>-72.16477120519383</v>
       </c>
-      <c r="I33" s="5">
-        <f t="shared" si="27"/>
+      <c r="I39" s="5">
+        <f t="shared" si="32"/>
         <v>-58.560286447503643</v>
       </c>
-      <c r="J33" s="5">
-        <f t="shared" si="27"/>
+      <c r="J39" s="5">
+        <f t="shared" si="32"/>
         <v>-111.72890825161375</v>
       </c>
-      <c r="K33" s="5">
-        <f t="shared" si="27"/>
+      <c r="K39" s="5">
+        <f t="shared" si="32"/>
         <v>-43.308496114763642</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D40" s="5" t="str">
         <f>"+1RMSE"</f>
         <v>+1RMSE</v>
       </c>
-      <c r="E34" s="5">
-        <f>E32+SUMIFS(E$18:E$27,$C$18:$C$27,$C34,$D$18:$D$27,$B34)</f>
+      <c r="E40" s="5">
+        <f>E38+SUMIFS(E$21:E$30,$C$21:$C$30,$C40,$D$21:$D$30,$B40)</f>
         <v>312.5868115838835</v>
       </c>
-      <c r="F34" s="5">
-        <f t="shared" ref="F34:K34" si="28">F32+SUMIFS(F$18:F$27,$C$18:$C$27,$C34,$D$18:$D$27,$B34)</f>
+      <c r="F40" s="5">
+        <f t="shared" ref="F40:K40" si="33">F38+SUMIFS(F$21:F$30,$C$21:$C$30,$C40,$D$21:$D$30,$B40)</f>
         <v>323.2435059840837</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="28"/>
+      <c r="G40" s="5">
+        <f t="shared" si="33"/>
         <v>349.6836242622536</v>
       </c>
-      <c r="H34" s="5">
-        <f t="shared" si="28"/>
+      <c r="H40" s="5">
+        <f t="shared" si="33"/>
         <v>363.72512314887354</v>
       </c>
-      <c r="I34" s="5">
-        <f t="shared" si="28"/>
+      <c r="I40" s="5">
+        <f t="shared" si="33"/>
         <v>377.32960790656369</v>
       </c>
-      <c r="J34" s="5">
-        <f t="shared" si="28"/>
+      <c r="J40" s="5">
+        <f t="shared" si="33"/>
         <v>324.16098610245359</v>
       </c>
-      <c r="K34" s="5">
-        <f t="shared" si="28"/>
+      <c r="K40" s="5">
+        <f t="shared" si="33"/>
         <v>392.58139823930367</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C35" s="5" t="s">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="5">
-        <f>$O6</f>
+      <c r="E41" s="5">
+        <f t="shared" ref="E41:K43" si="34">$O6</f>
         <v>2.7676326642517899</v>
       </c>
-      <c r="F35" s="5">
-        <f>$O6</f>
+      <c r="F41" s="5">
+        <f t="shared" si="34"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="G35" s="5">
-        <f>$O6</f>
+      <c r="G41" s="5">
+        <f t="shared" si="34"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="H35" s="5">
-        <f>$O6</f>
+      <c r="H41" s="5">
+        <f t="shared" si="34"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="I35" s="5">
-        <f>$O6</f>
+      <c r="I41" s="5">
+        <f t="shared" si="34"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="J35" s="5">
-        <f>$O6</f>
+      <c r="J41" s="5">
+        <f t="shared" si="34"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="K35" s="5">
-        <f>$O6</f>
+      <c r="K41" s="5">
+        <f t="shared" si="34"/>
         <v>2.7676326642517899</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C36" s="5" t="s">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="5">
-        <f>$O7</f>
+      <c r="E42" s="5">
+        <f t="shared" si="34"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="F36" s="5">
-        <f>$O7</f>
+      <c r="F42" s="5">
+        <f t="shared" si="34"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="G36" s="5">
-        <f>$O7</f>
+      <c r="G42" s="5">
+        <f t="shared" si="34"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="H36" s="5">
-        <f>$O7</f>
+      <c r="H42" s="5">
+        <f t="shared" si="34"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="I36" s="5">
-        <f>$O7</f>
+      <c r="I42" s="5">
+        <f t="shared" si="34"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="J36" s="5">
-        <f>$O7</f>
+      <c r="J42" s="5">
+        <f t="shared" si="34"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="K36" s="5">
-        <f>$O7</f>
+      <c r="K42" s="5">
+        <f t="shared" si="34"/>
         <v>2.5214558225865309</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C37" s="5" t="s">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="5">
-        <f>$O8</f>
+      <c r="E43" s="5">
+        <f t="shared" si="34"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="F37" s="5">
-        <f>$O8</f>
+      <c r="F43" s="5">
+        <f t="shared" si="34"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="G37" s="5">
-        <f>$O8</f>
+      <c r="G43" s="5">
+        <f t="shared" si="34"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="H37" s="5">
-        <f>$O8</f>
+      <c r="H43" s="5">
+        <f t="shared" si="34"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="I37" s="5">
-        <f>$O8</f>
+      <c r="I43" s="5">
+        <f t="shared" si="34"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="J37" s="5">
-        <f>$O8</f>
+      <c r="J43" s="5">
+        <f t="shared" si="34"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="K37" s="5">
-        <f>$O8</f>
+      <c r="K43" s="5">
+        <f t="shared" si="34"/>
         <v>3.092000919484164</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
+    <row r="45" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E45" s="6">
         <v>2015</v>
       </c>
-      <c r="F39" s="6">
-        <f>E39+1</f>
+      <c r="F45" s="6">
+        <f>E45+1</f>
         <v>2016</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" ref="G39:K39" si="29">F39+1</f>
+      <c r="G45" s="6">
+        <f t="shared" ref="G45:K45" si="35">F45+1</f>
         <v>2017</v>
       </c>
-      <c r="H39" s="6">
-        <f t="shared" si="29"/>
+      <c r="H45" s="6">
+        <f t="shared" si="35"/>
         <v>2018</v>
       </c>
-      <c r="I39" s="6">
-        <f t="shared" si="29"/>
+      <c r="I45" s="6">
+        <f t="shared" si="35"/>
         <v>2019</v>
       </c>
-      <c r="J39" s="6">
-        <f t="shared" si="29"/>
+      <c r="J45" s="6">
+        <f t="shared" si="35"/>
         <v>2020</v>
       </c>
-      <c r="K39" s="6">
-        <f t="shared" si="29"/>
+      <c r="K45" s="6">
+        <f t="shared" si="35"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="5">
-        <f>SUMIFS(E$18:E$27,$C$18:$C$27,$C40,$D$18:$D$27,$B40)</f>
+      <c r="E46" s="5">
+        <f>SUMIFS(E$21:E$30,$C$21:$C$30,$C46,$D$21:$D$30,$B46)</f>
         <v>4.5729556126999515</v>
       </c>
-      <c r="F40" s="5">
-        <f t="shared" ref="F40:K40" si="30">SUMIFS(F$18:F$27,$C$18:$C$27,$C40,$D$18:$D$27,$B40)</f>
+      <c r="F46" s="5">
+        <f t="shared" ref="F46:K46" si="36">SUMIFS(F$21:F$30,$C$21:$C$30,$C46,$D$21:$D$30,$B46)</f>
         <v>1.9375075688100587</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" si="30"/>
+      <c r="G46" s="5">
+        <f t="shared" si="36"/>
         <v>10.01132030769995</v>
       </c>
-      <c r="H40" s="5">
-        <f t="shared" si="30"/>
+      <c r="H46" s="5">
+        <f t="shared" si="36"/>
         <v>11.41444291702002</v>
       </c>
-      <c r="I40" s="5">
-        <f t="shared" si="30"/>
+      <c r="I46" s="5">
+        <f t="shared" si="36"/>
         <v>16.710500088590088</v>
       </c>
-      <c r="J40" s="5">
-        <f t="shared" si="30"/>
+      <c r="J46" s="5">
+        <f t="shared" si="36"/>
         <v>-3.800333985</v>
       </c>
-      <c r="K40" s="5">
-        <f t="shared" si="30"/>
+      <c r="K46" s="5">
+        <f t="shared" si="36"/>
         <v>36.730597095900144</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="5" t="str">
-        <f>C40</f>
+      <c r="C47" s="5" t="str">
+        <f>C46</f>
         <v>NN 1</v>
       </c>
-      <c r="D41" s="5" t="str">
+      <c r="D47" s="5" t="str">
         <f>"-1RMSE"</f>
         <v>-1RMSE</v>
       </c>
-      <c r="E41" s="5">
-        <f>E40-SUMIFS(E$18:E$27,$C$18:$C$27,$C41,$D$18:$D$27,$B41)</f>
+      <c r="E47" s="5">
+        <f>E46-SUMIFS(E$21:E$30,$C$21:$C$30,$C47,$D$21:$D$30,$B47)</f>
         <v>-4.8058796028265487</v>
       </c>
-      <c r="F41" s="5">
-        <f t="shared" ref="F41" si="31">F40-SUMIFS(F$18:F$27,$C$18:$C$27,$C41,$D$18:$D$27,$B41)</f>
+      <c r="F47" s="5">
+        <f t="shared" ref="F47" si="37">F46-SUMIFS(F$21:F$30,$C$21:$C$30,$C47,$D$21:$D$30,$B47)</f>
         <v>-7.4413276467164415</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" ref="G41" si="32">G40-SUMIFS(G$18:G$27,$C$18:$C$27,$C41,$D$18:$D$27,$B41)</f>
+      <c r="G47" s="5">
+        <f t="shared" ref="G47" si="38">G46-SUMIFS(G$21:G$30,$C$21:$C$30,$C47,$D$21:$D$30,$B47)</f>
         <v>0.63248509217345017</v>
       </c>
-      <c r="H41" s="5">
-        <f t="shared" ref="H41" si="33">H40-SUMIFS(H$18:H$27,$C$18:$C$27,$C41,$D$18:$D$27,$B41)</f>
+      <c r="H47" s="5">
+        <f t="shared" ref="H47" si="39">H46-SUMIFS(H$21:H$30,$C$21:$C$30,$C47,$D$21:$D$30,$B47)</f>
         <v>2.0356077014935199</v>
       </c>
-      <c r="I41" s="5">
-        <f t="shared" ref="I41" si="34">I40-SUMIFS(I$18:I$27,$C$18:$C$27,$C41,$D$18:$D$27,$B41)</f>
+      <c r="I47" s="5">
+        <f t="shared" ref="I47" si="40">I46-SUMIFS(I$21:I$30,$C$21:$C$30,$C47,$D$21:$D$30,$B47)</f>
         <v>7.3316648730635876</v>
       </c>
-      <c r="J41" s="5">
-        <f t="shared" ref="J41" si="35">J40-SUMIFS(J$18:J$27,$C$18:$C$27,$C41,$D$18:$D$27,$B41)</f>
+      <c r="J47" s="5">
+        <f t="shared" ref="J47" si="41">J46-SUMIFS(J$21:J$30,$C$21:$C$30,$C47,$D$21:$D$30,$B47)</f>
         <v>-13.1791692005265</v>
       </c>
-      <c r="K41" s="5">
-        <f t="shared" ref="K41" si="36">K40-SUMIFS(K$18:K$27,$C$18:$C$27,$C41,$D$18:$D$27,$B41)</f>
+      <c r="K47" s="5">
+        <f t="shared" ref="K47" si="42">K46-SUMIFS(K$21:K$30,$C$21:$C$30,$C47,$D$21:$D$30,$B47)</f>
         <v>27.351761880373644</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="5" t="str">
-        <f>C41</f>
+      <c r="C48" s="5" t="str">
+        <f>C47</f>
         <v>NN 1</v>
       </c>
-      <c r="D42" s="5" t="str">
+      <c r="D48" s="5" t="str">
         <f>"+1RMSE"</f>
         <v>+1RMSE</v>
       </c>
-      <c r="E42" s="5">
-        <f>E40+SUMIFS(E$18:E$27,$C$18:$C$27,$C42,$D$18:$D$27,$B42)</f>
+      <c r="E48" s="5">
+        <f>E46+SUMIFS(E$21:E$30,$C$21:$C$30,$C48,$D$21:$D$30,$B48)</f>
         <v>13.951790828226452</v>
       </c>
-      <c r="F42" s="5">
-        <f t="shared" ref="F42:K42" si="37">F40+SUMIFS(F$18:F$27,$C$18:$C$27,$C42,$D$18:$D$27,$B42)</f>
+      <c r="F48" s="5">
+        <f t="shared" ref="F48:K48" si="43">F46+SUMIFS(F$21:F$30,$C$21:$C$30,$C48,$D$21:$D$30,$B48)</f>
         <v>11.316342784336559</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" si="37"/>
+      <c r="G48" s="5">
+        <f t="shared" si="43"/>
         <v>19.390155523226451</v>
       </c>
-      <c r="H42" s="5">
-        <f t="shared" si="37"/>
+      <c r="H48" s="5">
+        <f t="shared" si="43"/>
         <v>20.793278132546519</v>
       </c>
-      <c r="I42" s="5">
-        <f t="shared" si="37"/>
+      <c r="I48" s="5">
+        <f t="shared" si="43"/>
         <v>26.089335304116588</v>
       </c>
-      <c r="J42" s="5">
-        <f t="shared" si="37"/>
+      <c r="J48" s="5">
+        <f t="shared" si="43"/>
         <v>5.5785012305265003</v>
       </c>
-      <c r="K42" s="5">
-        <f t="shared" si="37"/>
+      <c r="K48" s="5">
+        <f t="shared" si="43"/>
         <v>46.109432311426644</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="5" t="str">
-        <f>C42</f>
+      <c r="C49" s="5" t="str">
+        <f>C48</f>
         <v>NN 1</v>
       </c>
-      <c r="D43" s="5" t="str">
+      <c r="D49" s="5" t="str">
         <f>"-2RMSE"</f>
         <v>-2RMSE</v>
       </c>
-      <c r="E43" s="5">
-        <f>E41-SUMIFS(E$18:E$27,$C$18:$C$27,$C43,$D$18:$D$27,$B43)</f>
+      <c r="E49" s="5">
+        <f>E47-SUMIFS(E$21:E$30,$C$21:$C$30,$C49,$D$21:$D$30,$B49)</f>
         <v>-14.184714818353049</v>
       </c>
-      <c r="F43" s="5">
-        <f t="shared" ref="F43:K43" si="38">F41-SUMIFS(F$18:F$27,$C$18:$C$27,$C43,$D$18:$D$27,$B43)</f>
+      <c r="F49" s="5">
+        <f t="shared" ref="F49:K49" si="44">F47-SUMIFS(F$21:F$30,$C$21:$C$30,$C49,$D$21:$D$30,$B49)</f>
         <v>-16.820162862242942</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="38"/>
+      <c r="G49" s="5">
+        <f t="shared" si="44"/>
         <v>-8.7463501233530501</v>
       </c>
-      <c r="H43" s="5">
-        <f t="shared" si="38"/>
+      <c r="H49" s="5">
+        <f t="shared" si="44"/>
         <v>-7.3432275140329804</v>
       </c>
-      <c r="I43" s="5">
-        <f t="shared" si="38"/>
+      <c r="I49" s="5">
+        <f t="shared" si="44"/>
         <v>-2.0471703424629126</v>
       </c>
-      <c r="J43" s="5">
-        <f t="shared" si="38"/>
+      <c r="J49" s="5">
+        <f t="shared" si="44"/>
         <v>-22.558004416053002</v>
       </c>
-      <c r="K43" s="5">
-        <f t="shared" si="38"/>
+      <c r="K49" s="5">
+        <f t="shared" si="44"/>
         <v>17.972926664847144</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="5" t="str">
-        <f>C43</f>
+      <c r="C50" s="5" t="str">
+        <f>C49</f>
         <v>NN 1</v>
       </c>
-      <c r="D44" s="5" t="str">
+      <c r="D50" s="5" t="str">
         <f>"+2RMSE"</f>
         <v>+2RMSE</v>
       </c>
-      <c r="E44" s="5">
-        <f>E42+SUMIFS(E$18:E$27,$C$18:$C$27,$C44,$D$18:$D$27,$B44)</f>
+      <c r="E50" s="5">
+        <f>E48+SUMIFS(E$21:E$30,$C$21:$C$30,$C50,$D$21:$D$30,$B50)</f>
         <v>23.33062604375295</v>
       </c>
-      <c r="F44" s="5">
-        <f t="shared" ref="F44:K44" si="39">F42+SUMIFS(F$18:F$27,$C$18:$C$27,$C44,$D$18:$D$27,$B44)</f>
+      <c r="F50" s="5">
+        <f t="shared" ref="F50:K50" si="45">F48+SUMIFS(F$21:F$30,$C$21:$C$30,$C50,$D$21:$D$30,$B50)</f>
         <v>20.695177999863059</v>
       </c>
-      <c r="G44" s="5">
-        <f t="shared" si="39"/>
+      <c r="G50" s="5">
+        <f t="shared" si="45"/>
         <v>28.768990738752951</v>
       </c>
-      <c r="H44" s="5">
-        <f t="shared" si="39"/>
+      <c r="H50" s="5">
+        <f t="shared" si="45"/>
         <v>30.172113348073019</v>
       </c>
-      <c r="I44" s="5">
-        <f t="shared" si="39"/>
+      <c r="I50" s="5">
+        <f t="shared" si="45"/>
         <v>35.468170519643088</v>
       </c>
-      <c r="J44" s="5">
-        <f t="shared" si="39"/>
+      <c r="J50" s="5">
+        <f t="shared" si="45"/>
         <v>14.957336446053001</v>
       </c>
-      <c r="K44" s="5">
-        <f t="shared" si="39"/>
+      <c r="K50" s="5">
+        <f t="shared" si="45"/>
         <v>55.488267526953145</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C45" s="5" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="5">
-        <f>E35</f>
+      <c r="E51" s="5">
+        <f>E41</f>
         <v>2.7676326642517899</v>
       </c>
-      <c r="F45" s="5">
-        <f t="shared" ref="F45:K45" si="40">F35</f>
+      <c r="F51" s="5">
+        <f t="shared" ref="F51:K51" si="46">F41</f>
         <v>2.7676326642517899</v>
       </c>
-      <c r="G45" s="5">
-        <f t="shared" si="40"/>
+      <c r="G51" s="5">
+        <f t="shared" si="46"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="H45" s="5">
-        <f t="shared" si="40"/>
+      <c r="H51" s="5">
+        <f t="shared" si="46"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="I45" s="5">
-        <f t="shared" si="40"/>
+      <c r="I51" s="5">
+        <f t="shared" si="46"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="J45" s="5">
-        <f t="shared" si="40"/>
+      <c r="J51" s="5">
+        <f t="shared" si="46"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="K45" s="5">
-        <f t="shared" si="40"/>
+      <c r="K51" s="5">
+        <f t="shared" si="46"/>
         <v>2.7676326642517899</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C46" s="5" t="s">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="5">
-        <f t="shared" ref="E46:K46" si="41">E36</f>
+      <c r="E52" s="5">
+        <f t="shared" ref="E52:K52" si="47">E42</f>
         <v>2.5214558225865309</v>
       </c>
-      <c r="F46" s="5">
-        <f t="shared" si="41"/>
+      <c r="F52" s="5">
+        <f t="shared" si="47"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="G46" s="5">
-        <f t="shared" si="41"/>
+      <c r="G52" s="5">
+        <f t="shared" si="47"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="H46" s="5">
-        <f t="shared" si="41"/>
+      <c r="H52" s="5">
+        <f t="shared" si="47"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="I46" s="5">
-        <f t="shared" si="41"/>
+      <c r="I52" s="5">
+        <f t="shared" si="47"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="J46" s="5">
-        <f t="shared" si="41"/>
+      <c r="J52" s="5">
+        <f t="shared" si="47"/>
         <v>2.5214558225865309</v>
       </c>
-      <c r="K46" s="5">
-        <f t="shared" si="41"/>
+      <c r="K52" s="5">
+        <f t="shared" si="47"/>
         <v>2.5214558225865309</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C47" s="5" t="s">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="5">
-        <f t="shared" ref="E47:K47" si="42">E37</f>
+      <c r="E53" s="5">
+        <f t="shared" ref="E53:K53" si="48">E43</f>
         <v>3.092000919484164</v>
       </c>
-      <c r="F47" s="5">
-        <f t="shared" si="42"/>
+      <c r="F53" s="5">
+        <f t="shared" si="48"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="G47" s="5">
-        <f t="shared" si="42"/>
+      <c r="G53" s="5">
+        <f t="shared" si="48"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="H47" s="5">
-        <f t="shared" si="42"/>
+      <c r="H53" s="5">
+        <f t="shared" si="48"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="I47" s="5">
-        <f t="shared" si="42"/>
+      <c r="I53" s="5">
+        <f t="shared" si="48"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="J47" s="5">
-        <f t="shared" si="42"/>
+      <c r="J53" s="5">
+        <f t="shared" si="48"/>
         <v>3.092000919484164</v>
       </c>
-      <c r="K47" s="5">
-        <f t="shared" si="42"/>
+      <c r="K53" s="5">
+        <f t="shared" si="48"/>
         <v>3.092000919484164</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C49" s="6" t="s">
+    <row r="55" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E55" s="6">
         <v>2015</v>
       </c>
-      <c r="F49" s="6">
-        <f>E49+1</f>
+      <c r="F55" s="6">
+        <f>E55+1</f>
         <v>2016</v>
       </c>
-      <c r="G49" s="6">
-        <f t="shared" ref="G49:K49" si="43">F49+1</f>
+      <c r="G55" s="6">
+        <f t="shared" ref="G55:K55" si="49">F55+1</f>
         <v>2017</v>
       </c>
-      <c r="H49" s="6">
-        <f t="shared" si="43"/>
+      <c r="H55" s="6">
+        <f t="shared" si="49"/>
         <v>2018</v>
       </c>
-      <c r="I49" s="6">
-        <f t="shared" si="43"/>
+      <c r="I55" s="6">
+        <f t="shared" si="49"/>
         <v>2019</v>
       </c>
-      <c r="J49" s="6">
-        <f t="shared" si="43"/>
+      <c r="J55" s="6">
+        <f t="shared" si="49"/>
         <v>2020</v>
       </c>
-      <c r="K49" s="6">
-        <f t="shared" si="43"/>
+      <c r="K55" s="6">
+        <f t="shared" si="49"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="5">
-        <f>SUMIFS(E$18:E$27,$C$18:$C$27,$C50,$D$18:$D$27,$B50)</f>
+      <c r="E56" s="5">
+        <f>SUMIFS(E$21:E$30,$C$21:$C$30,$C56,$D$21:$D$30,$B56)</f>
         <v>2.8849857530200196</v>
       </c>
-      <c r="F50" s="5">
-        <f t="shared" ref="F50:K50" si="44">SUMIFS(F$18:F$27,$C$18:$C$27,$C50,$D$18:$D$27,$B50)</f>
+      <c r="F56" s="5">
+        <f t="shared" ref="F56:K56" si="50">SUMIFS(F$21:F$30,$C$21:$C$30,$C56,$D$21:$D$30,$B56)</f>
         <v>-16.603090936370116</v>
       </c>
-      <c r="G50" s="5">
-        <f t="shared" si="44"/>
+      <c r="G56" s="5">
+        <f t="shared" si="50"/>
         <v>8.5195500907900392</v>
       </c>
-      <c r="H50" s="5">
-        <f t="shared" si="44"/>
+      <c r="H56" s="5">
+        <f t="shared" si="50"/>
         <v>29.770987229109863</v>
       </c>
-      <c r="I50" s="5">
-        <f t="shared" si="44"/>
+      <c r="I56" s="5">
+        <f t="shared" si="50"/>
         <v>51.714925455120117</v>
       </c>
-      <c r="J50" s="5">
-        <f t="shared" si="44"/>
+      <c r="J56" s="5">
+        <f t="shared" si="50"/>
         <v>60.305799824020021</v>
       </c>
-      <c r="K50" s="5">
-        <f t="shared" si="44"/>
+      <c r="K56" s="5">
+        <f t="shared" si="50"/>
         <v>108.0783997635</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="5" t="str">
-        <f>C50</f>
+      <c r="C57" s="5" t="str">
+        <f>C56</f>
         <v>NN 2</v>
       </c>
-      <c r="D51" s="5" t="str">
+      <c r="D57" s="5" t="str">
         <f>"-1RMSE"</f>
         <v>-1RMSE</v>
       </c>
-      <c r="E51" s="5">
-        <f>E50-SUMIFS(E$18:E$27,$C$18:$C$27,$C51,$D$18:$D$27,$B51)</f>
+      <c r="E57" s="5">
+        <f>E56-SUMIFS(E$21:E$30,$C$21:$C$30,$C57,$D$21:$D$30,$B57)</f>
         <v>-8.6317064804296528</v>
       </c>
-      <c r="F51" s="5">
-        <f t="shared" ref="F51" si="45">F50-SUMIFS(F$18:F$27,$C$18:$C$27,$C51,$D$18:$D$27,$B51)</f>
+      <c r="F57" s="5">
+        <f t="shared" ref="F57" si="51">F56-SUMIFS(F$21:F$30,$C$21:$C$30,$C57,$D$21:$D$30,$B57)</f>
         <v>-28.11978316981979</v>
       </c>
-      <c r="G51" s="5">
-        <f t="shared" ref="G51" si="46">G50-SUMIFS(G$18:G$27,$C$18:$C$27,$C51,$D$18:$D$27,$B51)</f>
+      <c r="G57" s="5">
+        <f t="shared" ref="G57" si="52">G56-SUMIFS(G$21:G$30,$C$21:$C$30,$C57,$D$21:$D$30,$B57)</f>
         <v>-2.9971421426596336</v>
       </c>
-      <c r="H51" s="5">
-        <f t="shared" ref="H51" si="47">H50-SUMIFS(H$18:H$27,$C$18:$C$27,$C51,$D$18:$D$27,$B51)</f>
+      <c r="H57" s="5">
+        <f t="shared" ref="H57" si="53">H56-SUMIFS(H$21:H$30,$C$21:$C$30,$C57,$D$21:$D$30,$B57)</f>
         <v>18.254294995660189</v>
       </c>
-      <c r="I51" s="5">
-        <f t="shared" ref="I51" si="48">I50-SUMIFS(I$18:I$27,$C$18:$C$27,$C51,$D$18:$D$27,$B51)</f>
+      <c r="I57" s="5">
+        <f t="shared" ref="I57" si="54">I56-SUMIFS(I$21:I$30,$C$21:$C$30,$C57,$D$21:$D$30,$B57)</f>
         <v>40.198233221670442</v>
       </c>
-      <c r="J51" s="5">
-        <f t="shared" ref="J51" si="49">J50-SUMIFS(J$18:J$27,$C$18:$C$27,$C51,$D$18:$D$27,$B51)</f>
+      <c r="J57" s="5">
+        <f t="shared" ref="J57" si="55">J56-SUMIFS(J$21:J$30,$C$21:$C$30,$C57,$D$21:$D$30,$B57)</f>
         <v>48.789107590570346</v>
       </c>
-      <c r="K51" s="5">
-        <f t="shared" ref="K51" si="50">K50-SUMIFS(K$18:K$27,$C$18:$C$27,$C51,$D$18:$D$27,$B51)</f>
+      <c r="K57" s="5">
+        <f t="shared" ref="K57" si="56">K56-SUMIFS(K$21:K$30,$C$21:$C$30,$C57,$D$21:$D$30,$B57)</f>
         <v>96.561707530050327</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="5" t="str">
-        <f>C51</f>
+      <c r="C58" s="5" t="str">
+        <f>C57</f>
         <v>NN 2</v>
       </c>
-      <c r="D52" s="5" t="str">
+      <c r="D58" s="5" t="str">
         <f>"+1RMSE"</f>
         <v>+1RMSE</v>
       </c>
-      <c r="E52" s="5">
-        <f>E50+SUMIFS(E$18:E$27,$C$18:$C$27,$C52,$D$18:$D$27,$B52)</f>
+      <c r="E58" s="5">
+        <f>E56+SUMIFS(E$21:E$30,$C$21:$C$30,$C58,$D$21:$D$30,$B58)</f>
         <v>14.401677986469693</v>
       </c>
-      <c r="F52" s="5">
-        <f t="shared" ref="F52:K52" si="51">F50+SUMIFS(F$18:F$27,$C$18:$C$27,$C52,$D$18:$D$27,$B52)</f>
+      <c r="F58" s="5">
+        <f t="shared" ref="F58:K58" si="57">F56+SUMIFS(F$21:F$30,$C$21:$C$30,$C58,$D$21:$D$30,$B58)</f>
         <v>-5.0863987029204427</v>
       </c>
-      <c r="G52" s="5">
-        <f t="shared" si="51"/>
+      <c r="G58" s="5">
+        <f t="shared" si="57"/>
         <v>20.036242324239712</v>
       </c>
-      <c r="H52" s="5">
-        <f t="shared" si="51"/>
+      <c r="H58" s="5">
+        <f t="shared" si="57"/>
         <v>41.287679462559538</v>
       </c>
-      <c r="I52" s="5">
-        <f t="shared" si="51"/>
+      <c r="I58" s="5">
+        <f t="shared" si="57"/>
         <v>63.231617688569791</v>
       </c>
-      <c r="J52" s="5">
-        <f t="shared" si="51"/>
+      <c r="J58" s="5">
+        <f t="shared" si="57"/>
         <v>71.822492057469688</v>
       </c>
-      <c r="K52" s="5">
-        <f t="shared" si="51"/>
+      <c r="K58" s="5">
+        <f t="shared" si="57"/>
         <v>119.59509199694968</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="5" t="str">
-        <f>C52</f>
+      <c r="C59" s="5" t="str">
+        <f>C58</f>
         <v>NN 2</v>
       </c>
-      <c r="D53" s="5" t="str">
+      <c r="D59" s="5" t="str">
         <f>"-2RMSE"</f>
         <v>-2RMSE</v>
       </c>
-      <c r="E53" s="5">
-        <f>E51-SUMIFS(E$18:E$27,$C$18:$C$27,$C53,$D$18:$D$27,$B53)</f>
+      <c r="E59" s="5">
+        <f>E57-SUMIFS(E$21:E$30,$C$21:$C$30,$C59,$D$21:$D$30,$B59)</f>
         <v>-20.148398713879324</v>
       </c>
-      <c r="F53" s="5">
-        <f t="shared" ref="F53:K53" si="52">F51-SUMIFS(F$18:F$27,$C$18:$C$27,$C53,$D$18:$D$27,$B53)</f>
+      <c r="F59" s="5">
+        <f t="shared" ref="F59:K59" si="58">F57-SUMIFS(F$21:F$30,$C$21:$C$30,$C59,$D$21:$D$30,$B59)</f>
         <v>-39.636475403269465</v>
       </c>
-      <c r="G53" s="5">
-        <f t="shared" si="52"/>
+      <c r="G59" s="5">
+        <f t="shared" si="58"/>
         <v>-14.513834376109306</v>
       </c>
-      <c r="H53" s="5">
-        <f t="shared" si="52"/>
+      <c r="H59" s="5">
+        <f t="shared" si="58"/>
         <v>6.7376027622105159</v>
       </c>
-      <c r="I53" s="5">
-        <f t="shared" si="52"/>
+      <c r="I59" s="5">
+        <f t="shared" si="58"/>
         <v>28.681540988220767</v>
       </c>
-      <c r="J53" s="5">
-        <f t="shared" si="52"/>
+      <c r="J59" s="5">
+        <f t="shared" si="58"/>
         <v>37.272415357120671</v>
       </c>
-      <c r="K53" s="5">
-        <f t="shared" si="52"/>
+      <c r="K59" s="5">
+        <f t="shared" si="58"/>
         <v>85.045015296600653</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="5" t="str">
-        <f>C53</f>
+      <c r="C60" s="5" t="str">
+        <f>C59</f>
         <v>NN 2</v>
       </c>
-      <c r="D54" s="5" t="str">
+      <c r="D60" s="5" t="str">
         <f>"+2RMSE"</f>
         <v>+2RMSE</v>
       </c>
-      <c r="E54" s="5">
-        <f>E52+SUMIFS(E$18:E$27,$C$18:$C$27,$C54,$D$18:$D$27,$B54)</f>
+      <c r="E60" s="5">
+        <f>E58+SUMIFS(E$21:E$30,$C$21:$C$30,$C60,$D$21:$D$30,$B60)</f>
         <v>25.918370219919368</v>
       </c>
-      <c r="F54" s="5">
-        <f t="shared" ref="F54:K54" si="53">F52+SUMIFS(F$18:F$27,$C$18:$C$27,$C54,$D$18:$D$27,$B54)</f>
+      <c r="F60" s="5">
+        <f t="shared" ref="F60:K60" si="59">F58+SUMIFS(F$21:F$30,$C$21:$C$30,$C60,$D$21:$D$30,$B60)</f>
         <v>6.4302935305292301</v>
       </c>
-      <c r="G54" s="5">
-        <f t="shared" si="53"/>
+      <c r="G60" s="5">
+        <f t="shared" si="59"/>
         <v>31.552934557689383</v>
       </c>
-      <c r="H54" s="5">
-        <f t="shared" si="53"/>
+      <c r="H60" s="5">
+        <f t="shared" si="59"/>
         <v>52.804371696009213</v>
       </c>
-      <c r="I54" s="5">
-        <f t="shared" si="53"/>
+      <c r="I60" s="5">
+        <f t="shared" si="59"/>
         <v>74.748309922019459</v>
       </c>
-      <c r="J54" s="5">
-        <f t="shared" si="53"/>
+      <c r="J60" s="5">
+        <f t="shared" si="59"/>
         <v>83.339184290919363</v>
       </c>
-      <c r="K54" s="5">
-        <f t="shared" si="53"/>
+      <c r="K60" s="5">
+        <f t="shared" si="59"/>
         <v>131.11178423039934</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C55" s="5" t="s">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C61" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="5">
-        <f>E45</f>
+      <c r="E61" s="5">
+        <f>E51</f>
         <v>2.7676326642517899</v>
       </c>
-      <c r="F55" s="5">
-        <f t="shared" ref="F55:K55" si="54">F45</f>
+      <c r="F61" s="5">
+        <f t="shared" ref="F61:K61" si="60">F51</f>
         <v>2.7676326642517899</v>
       </c>
-      <c r="G55" s="5">
-        <f t="shared" si="54"/>
+      <c r="G61" s="5">
+        <f t="shared" si="60"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="H55" s="5">
-        <f t="shared" si="54"/>
+      <c r="H61" s="5">
+        <f t="shared" si="60"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="I55" s="5">
-        <f t="shared" si="54"/>
+      <c r="I61" s="5">
+        <f t="shared" si="60"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="J55" s="5">
-        <f t="shared" si="54"/>
+      <c r="J61" s="5">
+        <f t="shared" si="60"/>
         <v>2.7676326642517899</v>
       </c>
-      <c r="K55" s="5">
-        <f t="shared" si="54"/>
+      <c r="K61" s="5">
+        <f t="shared" si="60"/>
         <v>2.7676326642517899</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="5">
-        <f t="shared" ref="E56:K56" si="55">E46</f>
-        <v>2.5214558225865309</v>
-      </c>
-      <c r="F56" s="5">
-        <f t="shared" si="55"/>
-        <v>2.5214558225865309</v>
-      </c>
-      <c r="G56" s="5">
-        <f t="shared" si="55"/>
-        <v>2.5214558225865309</v>
-      </c>
-      <c r="H56" s="5">
-        <f t="shared" si="55"/>
-        <v>2.5214558225865309</v>
-      </c>
-      <c r="I56" s="5">
-        <f t="shared" si="55"/>
-        <v>2.5214558225865309</v>
-      </c>
-      <c r="J56" s="5">
-        <f t="shared" si="55"/>
-        <v>2.5214558225865309</v>
-      </c>
-      <c r="K56" s="5">
-        <f t="shared" si="55"/>
-        <v>2.5214558225865309</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C57" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="5">
-        <f t="shared" ref="E57:K57" si="56">E47</f>
-        <v>3.092000919484164</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" si="56"/>
-        <v>3.092000919484164</v>
-      </c>
-      <c r="G57" s="5">
-        <f t="shared" si="56"/>
-        <v>3.092000919484164</v>
-      </c>
-      <c r="H57" s="5">
-        <f t="shared" si="56"/>
-        <v>3.092000919484164</v>
-      </c>
-      <c r="I57" s="5">
-        <f t="shared" si="56"/>
-        <v>3.092000919484164</v>
-      </c>
-      <c r="J57" s="5">
-        <f t="shared" si="56"/>
-        <v>3.092000919484164</v>
-      </c>
-      <c r="K57" s="5">
-        <f t="shared" si="56"/>
-        <v>3.092000919484164</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C61" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F61" s="6">
-        <f>E61+1</f>
-        <v>2016</v>
-      </c>
-      <c r="G61" s="6">
-        <f t="shared" ref="G61:K61" si="57">F61+1</f>
-        <v>2017</v>
-      </c>
-      <c r="H61" s="6">
-        <f t="shared" si="57"/>
-        <v>2018</v>
-      </c>
-      <c r="I61" s="6">
-        <f t="shared" si="57"/>
-        <v>2019</v>
-      </c>
-      <c r="J61" s="6">
-        <f t="shared" si="57"/>
-        <v>2020</v>
-      </c>
-      <c r="K61" s="6">
-        <f t="shared" si="57"/>
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" s="5">
-        <f>E55</f>
-        <v>2.7676326642517899</v>
+        <f t="shared" ref="E62:K62" si="61">E52</f>
+        <v>2.5214558225865309</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" ref="F62:K62" si="58">F55</f>
-        <v>2.7676326642517899</v>
+        <f t="shared" si="61"/>
+        <v>2.5214558225865309</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="58"/>
-        <v>2.7676326642517899</v>
+        <f t="shared" si="61"/>
+        <v>2.5214558225865309</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="58"/>
-        <v>2.7676326642517899</v>
+        <f t="shared" si="61"/>
+        <v>2.5214558225865309</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="58"/>
-        <v>2.7676326642517899</v>
+        <f t="shared" si="61"/>
+        <v>2.5214558225865309</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="58"/>
-        <v>2.7676326642517899</v>
+        <f t="shared" si="61"/>
+        <v>2.5214558225865309</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="58"/>
-        <v>2.7676326642517899</v>
+        <f t="shared" si="61"/>
+        <v>2.5214558225865309</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="9" t="s">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" ref="E63:K63" si="62">E53</f>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="62"/>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" si="62"/>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="H63" s="5">
+        <f t="shared" si="62"/>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="I63" s="5">
+        <f t="shared" si="62"/>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="J63" s="5">
+        <f t="shared" si="62"/>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="K63" s="5">
+        <f t="shared" si="62"/>
+        <v>3.092000919484164</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2015</v>
+      </c>
+      <c r="F65" s="6">
+        <f>E65+1</f>
+        <v>2016</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" ref="G65" si="63">F65+1</f>
+        <v>2017</v>
+      </c>
+      <c r="H65" s="6">
+        <f t="shared" ref="H65" si="64">G65+1</f>
+        <v>2018</v>
+      </c>
+      <c r="I65" s="6">
+        <f t="shared" ref="I65" si="65">H65+1</f>
+        <v>2019</v>
+      </c>
+      <c r="J65" s="6">
+        <f t="shared" ref="J65" si="66">I65+1</f>
+        <v>2020</v>
+      </c>
+      <c r="K65" s="6">
+        <f t="shared" ref="K65" si="67">J65+1</f>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="5">
-        <f>SUMIFS(E$18:E$27,$C$18:$C$27,$C63,$D$18:$D$27,$B63)</f>
-        <v>94.641864406849848</v>
-      </c>
-      <c r="F63" s="5">
-        <f t="shared" ref="F63:K68" si="59">SUMIFS(F$18:F$27,$C$18:$C$27,$C63,$D$18:$D$27,$B63)</f>
-        <v>105.29855880705004</v>
-      </c>
-      <c r="G63" s="5">
-        <f t="shared" si="59"/>
-        <v>131.73867708521996</v>
-      </c>
-      <c r="H63" s="5">
-        <f t="shared" si="59"/>
-        <v>145.78017597183984</v>
-      </c>
-      <c r="I63" s="5">
-        <f t="shared" si="59"/>
-        <v>159.38466072953003</v>
-      </c>
-      <c r="J63" s="5">
-        <f t="shared" si="59"/>
-        <v>106.21603892541992</v>
-      </c>
-      <c r="K63" s="5">
-        <f t="shared" si="59"/>
-        <v>174.63645106227003</v>
+      <c r="E66" s="5">
+        <f>SUMIFS(E$21:E$33,$C$21:$C$33,$C66,$D$21:$D$33,$B66)</f>
+        <v>9.3706378323498534</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" ref="F66:K66" si="68">SUMIFS(F$21:F$33,$C$21:$C$33,$C66,$D$21:$D$33,$B66)</f>
+        <v>-2.7888672409899904</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" si="68"/>
+        <v>-5.1356533447099606</v>
+      </c>
+      <c r="H66" s="5">
+        <f t="shared" si="68"/>
+        <v>0.17035754696997071</v>
+      </c>
+      <c r="I66" s="5">
+        <f t="shared" si="68"/>
+        <v>5.7348173497199708</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" si="68"/>
+        <v>-14.948967558399902</v>
+      </c>
+      <c r="K66" s="5">
+        <f t="shared" si="68"/>
+        <v>42.355572657360106</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="9" t="s">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="5" t="str">
-        <f>C63</f>
-        <v>SCM</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="5">
-        <f>SUMIFS(E$18:E$27,$C$18:$C$27,$C64,$D$18:$D$27,$B64)</f>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="F64" s="5">
-        <f t="shared" si="59"/>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="G64" s="5">
-        <f t="shared" si="59"/>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="H64" s="5">
-        <f t="shared" si="59"/>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="I64" s="5">
-        <f t="shared" si="59"/>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="J64" s="5">
-        <f t="shared" si="59"/>
-        <v>217.94494717703367</v>
-      </c>
-      <c r="K64" s="5">
-        <f t="shared" si="59"/>
-        <v>217.94494717703367</v>
+      <c r="C67" s="5" t="str">
+        <f>C66</f>
+        <v>NN 5</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <f>"-1RMSE"</f>
+        <v>-1RMSE</v>
+      </c>
+      <c r="E67" s="5">
+        <f>E66-SUMIFS(E$21:E$33,$C$21:$C$33,$C67,$D$21:$D$33,$B67)</f>
+        <v>2.2445970981933741</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" ref="F67:K67" si="69">F66-SUMIFS(F$21:F$33,$C$21:$C$33,$C67,$D$21:$D$33,$B67)</f>
+        <v>-9.9149079751464697</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="69"/>
+        <v>-12.261694078866441</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" si="69"/>
+        <v>-6.9556831871865086</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="69"/>
+        <v>-1.3912233844365085</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="69"/>
+        <v>-22.075008292556383</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" si="69"/>
+        <v>35.229531923203623</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="5">
-        <f>SUMIFS(E$18:E$27,$C$18:$C$27,$C65,$D$18:$D$27,$B65)</f>
-        <v>4.5729556126999515</v>
-      </c>
-      <c r="F65" s="5">
-        <f t="shared" si="59"/>
-        <v>1.9375075688100587</v>
-      </c>
-      <c r="G65" s="5">
-        <f t="shared" si="59"/>
-        <v>10.01132030769995</v>
-      </c>
-      <c r="H65" s="5">
-        <f t="shared" si="59"/>
-        <v>11.41444291702002</v>
-      </c>
-      <c r="I65" s="5">
-        <f t="shared" si="59"/>
-        <v>16.710500088590088</v>
-      </c>
-      <c r="J65" s="5">
-        <f t="shared" si="59"/>
-        <v>-3.800333985</v>
-      </c>
-      <c r="K65" s="5">
-        <f t="shared" si="59"/>
-        <v>36.730597095900144</v>
-      </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="5" t="str">
-        <f>C65</f>
-        <v>NN 1</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="5">
-        <f>SUMIFS(E$18:E$27,$C$18:$C$27,$C66,$D$18:$D$27,$B66)</f>
-        <v>9.3788352155265002</v>
-      </c>
-      <c r="F66" s="5">
-        <f t="shared" si="59"/>
-        <v>9.3788352155265002</v>
-      </c>
-      <c r="G66" s="5">
-        <f t="shared" si="59"/>
-        <v>9.3788352155265002</v>
-      </c>
-      <c r="H66" s="5">
-        <f t="shared" si="59"/>
-        <v>9.3788352155265002</v>
-      </c>
-      <c r="I66" s="5">
-        <f t="shared" si="59"/>
-        <v>9.3788352155265002</v>
-      </c>
-      <c r="J66" s="5">
-        <f t="shared" si="59"/>
-        <v>9.3788352155265002</v>
-      </c>
-      <c r="K66" s="5">
-        <f t="shared" si="59"/>
-        <v>9.3788352155265002</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="5">
-        <f>SUMIFS(E$18:E$27,$C$18:$C$27,$C67,$D$18:$D$27,$B67)</f>
-        <v>2.8849857530200196</v>
-      </c>
-      <c r="F67" s="5">
-        <f t="shared" si="59"/>
-        <v>-16.603090936370116</v>
-      </c>
-      <c r="G67" s="5">
-        <f t="shared" si="59"/>
-        <v>8.5195500907900392</v>
-      </c>
-      <c r="H67" s="5">
-        <f t="shared" si="59"/>
-        <v>29.770987229109863</v>
-      </c>
-      <c r="I67" s="5">
-        <f t="shared" si="59"/>
-        <v>51.714925455120117</v>
-      </c>
-      <c r="J67" s="5">
-        <f t="shared" si="59"/>
-        <v>60.305799824020021</v>
-      </c>
-      <c r="K67" s="5">
-        <f t="shared" si="59"/>
-        <v>108.0783997635</v>
-      </c>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="5" t="str">
         <f>C67</f>
+        <v>NN 5</v>
+      </c>
+      <c r="D68" s="5" t="str">
+        <f>"+1RMSE"</f>
+        <v>+1RMSE</v>
+      </c>
+      <c r="E68" s="5">
+        <f>E66+SUMIFS(E$21:E$33,$C$21:$C$33,$C68,$D$21:$D$33,$B68)</f>
+        <v>16.496678566506333</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" ref="F68:K68" si="70">F66+SUMIFS(F$21:F$33,$C$21:$C$33,$C68,$D$21:$D$33,$B68)</f>
+        <v>4.3371734931664889</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" si="70"/>
+        <v>1.9903873894465187</v>
+      </c>
+      <c r="H68" s="5">
+        <f t="shared" si="70"/>
+        <v>7.2963982811264501</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="70"/>
+        <v>12.860858083876451</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="70"/>
+        <v>-7.8229268242434227</v>
+      </c>
+      <c r="K68" s="5">
+        <f t="shared" si="70"/>
+        <v>49.481613391516589</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <f>C68</f>
+        <v>NN 5</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <f>"-2RMSE"</f>
+        <v>-2RMSE</v>
+      </c>
+      <c r="E69" s="5">
+        <f>E67-SUMIFS(E$21:E$33,$C$21:$C$33,$C69,$D$21:$D$33,$B69)</f>
+        <v>-4.8814436359631053</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" ref="F69:K69" si="71">F67-SUMIFS(F$21:F$33,$C$21:$C$33,$C69,$D$21:$D$33,$B69)</f>
+        <v>-17.040948709302949</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" si="71"/>
+        <v>-19.38773481302292</v>
+      </c>
+      <c r="H69" s="5">
+        <f t="shared" si="71"/>
+        <v>-14.081723921342988</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="71"/>
+        <v>-8.5172641185929869</v>
+      </c>
+      <c r="J69" s="5">
+        <f t="shared" si="71"/>
+        <v>-29.201049026712862</v>
+      </c>
+      <c r="K69" s="5">
+        <f t="shared" si="71"/>
+        <v>28.103491189047144</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5" t="str">
+        <f>C69</f>
+        <v>NN 5</v>
+      </c>
+      <c r="D70" s="5" t="str">
+        <f>"+2RMSE"</f>
+        <v>+2RMSE</v>
+      </c>
+      <c r="E70" s="5">
+        <f>E68+SUMIFS(E$21:E$33,$C$21:$C$33,$C70,$D$21:$D$33,$B70)</f>
+        <v>23.622719300662812</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" ref="F70:K70" si="72">F68+SUMIFS(F$21:F$33,$C$21:$C$33,$C70,$D$21:$D$33,$B70)</f>
+        <v>11.463214227322968</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" si="72"/>
+        <v>9.1164281236029971</v>
+      </c>
+      <c r="H70" s="5">
+        <f t="shared" si="72"/>
+        <v>14.422439015282929</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="72"/>
+        <v>19.98689881803293</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" si="72"/>
+        <v>-0.69688609008694336</v>
+      </c>
+      <c r="K70" s="5">
+        <f t="shared" si="72"/>
+        <v>56.607654125673065</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5">
+        <f>E61</f>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" ref="F71:K71" si="73">F61</f>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" si="73"/>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="H71" s="5">
+        <f t="shared" si="73"/>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="73"/>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="J71" s="5">
+        <f t="shared" si="73"/>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="K71" s="5">
+        <f t="shared" si="73"/>
+        <v>2.7676326642517899</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" ref="E72:K72" si="74">E62</f>
+        <v>2.5214558225865309</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="74"/>
+        <v>2.5214558225865309</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" si="74"/>
+        <v>2.5214558225865309</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" si="74"/>
+        <v>2.5214558225865309</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="74"/>
+        <v>2.5214558225865309</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="74"/>
+        <v>2.5214558225865309</v>
+      </c>
+      <c r="K72" s="5">
+        <f t="shared" si="74"/>
+        <v>2.5214558225865309</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" ref="E73:K73" si="75">E63</f>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="75"/>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" si="75"/>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="H73" s="5">
+        <f t="shared" si="75"/>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="75"/>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="J73" s="5">
+        <f t="shared" si="75"/>
+        <v>3.092000919484164</v>
+      </c>
+      <c r="K73" s="5">
+        <f t="shared" si="75"/>
+        <v>3.092000919484164</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C74" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+    </row>
+    <row r="76" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2015</v>
+      </c>
+      <c r="F76" s="6">
+        <f>E76+1</f>
+        <v>2016</v>
+      </c>
+      <c r="G76" s="6">
+        <f t="shared" ref="G76:K76" si="76">F76+1</f>
+        <v>2017</v>
+      </c>
+      <c r="H76" s="6">
+        <f t="shared" si="76"/>
+        <v>2018</v>
+      </c>
+      <c r="I76" s="6">
+        <f t="shared" si="76"/>
+        <v>2019</v>
+      </c>
+      <c r="J76" s="6">
+        <f t="shared" si="76"/>
+        <v>2020</v>
+      </c>
+      <c r="K76" s="6">
+        <f t="shared" si="76"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="5">
+        <f>E61</f>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" ref="F77:K77" si="77">F61</f>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="G77" s="5">
+        <f t="shared" si="77"/>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="H77" s="5">
+        <f t="shared" si="77"/>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="77"/>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="J77" s="5">
+        <f t="shared" si="77"/>
+        <v>2.7676326642517899</v>
+      </c>
+      <c r="K77" s="5">
+        <f t="shared" si="77"/>
+        <v>2.7676326642517899</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" ref="E78:E83" si="78">SUMIFS(E$21:E$30,$C$21:$C$30,$C78,$D$21:$D$30,$B78)</f>
+        <v>94.641864406849848</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" ref="F78:K83" si="79">SUMIFS(F$21:F$30,$C$21:$C$30,$C78,$D$21:$D$30,$B78)</f>
+        <v>105.29855880705004</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" si="79"/>
+        <v>131.73867708521996</v>
+      </c>
+      <c r="H78" s="5">
+        <f t="shared" si="79"/>
+        <v>145.78017597183984</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="79"/>
+        <v>159.38466072953003</v>
+      </c>
+      <c r="J78" s="5">
+        <f t="shared" si="79"/>
+        <v>106.21603892541992</v>
+      </c>
+      <c r="K78" s="5">
+        <f t="shared" si="79"/>
+        <v>174.63645106227003</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B79" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <f>C78</f>
+        <v>SCM</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="78"/>
+        <v>217.94494717703367</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="79"/>
+        <v>217.94494717703367</v>
+      </c>
+      <c r="G79" s="5">
+        <f t="shared" si="79"/>
+        <v>217.94494717703367</v>
+      </c>
+      <c r="H79" s="5">
+        <f t="shared" si="79"/>
+        <v>217.94494717703367</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="79"/>
+        <v>217.94494717703367</v>
+      </c>
+      <c r="J79" s="5">
+        <f t="shared" si="79"/>
+        <v>217.94494717703367</v>
+      </c>
+      <c r="K79" s="5">
+        <f t="shared" si="79"/>
+        <v>217.94494717703367</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B80" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="78"/>
+        <v>4.5729556126999515</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="79"/>
+        <v>1.9375075688100587</v>
+      </c>
+      <c r="G80" s="5">
+        <f t="shared" si="79"/>
+        <v>10.01132030769995</v>
+      </c>
+      <c r="H80" s="5">
+        <f t="shared" si="79"/>
+        <v>11.41444291702002</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="79"/>
+        <v>16.710500088590088</v>
+      </c>
+      <c r="J80" s="5">
+        <f t="shared" si="79"/>
+        <v>-3.800333985</v>
+      </c>
+      <c r="K80" s="5">
+        <f t="shared" si="79"/>
+        <v>36.730597095900144</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <f>C80</f>
+        <v>NN 1</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="78"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="79"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="G81" s="5">
+        <f t="shared" si="79"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="H81" s="5">
+        <f t="shared" si="79"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="I81" s="5">
+        <f t="shared" si="79"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="J81" s="5">
+        <f t="shared" si="79"/>
+        <v>9.3788352155265002</v>
+      </c>
+      <c r="K81" s="5">
+        <f t="shared" si="79"/>
+        <v>9.3788352155265002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="78"/>
+        <v>2.8849857530200196</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" si="79"/>
+        <v>-16.603090936370116</v>
+      </c>
+      <c r="G82" s="5">
+        <f t="shared" si="79"/>
+        <v>8.5195500907900392</v>
+      </c>
+      <c r="H82" s="5">
+        <f t="shared" si="79"/>
+        <v>29.770987229109863</v>
+      </c>
+      <c r="I82" s="5">
+        <f t="shared" si="79"/>
+        <v>51.714925455120117</v>
+      </c>
+      <c r="J82" s="5">
+        <f t="shared" si="79"/>
+        <v>60.305799824020021</v>
+      </c>
+      <c r="K82" s="5">
+        <f t="shared" si="79"/>
+        <v>108.0783997635</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <f>C82</f>
         <v>NN 2</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="5">
-        <f>SUMIFS(E$18:E$27,$C$18:$C$27,$C68,$D$18:$D$27,$B68)</f>
+      <c r="E83" s="5">
+        <f t="shared" si="78"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="F68" s="5">
-        <f t="shared" si="59"/>
+      <c r="F83" s="5">
+        <f t="shared" si="79"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="G68" s="5">
-        <f t="shared" si="59"/>
+      <c r="G83" s="5">
+        <f t="shared" si="79"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="H68" s="5">
-        <f t="shared" si="59"/>
+      <c r="H83" s="5">
+        <f t="shared" si="79"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="I68" s="5">
-        <f t="shared" si="59"/>
+      <c r="I83" s="5">
+        <f t="shared" si="79"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="J68" s="5">
-        <f t="shared" si="59"/>
+      <c r="J83" s="5">
+        <f t="shared" si="79"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="K68" s="5">
-        <f t="shared" si="59"/>
+      <c r="K83" s="5">
+        <f t="shared" si="79"/>
         <v>11.516692233449673</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C69" s="5" t="str">
-        <f>C64</f>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="5">
+        <f>SUMIFS(E$21:E$33,$C$21:$C$33,$C84,$D$21:$D$33,$B84)</f>
+        <v>9.3706378323498534</v>
+      </c>
+      <c r="F84" s="5">
+        <f t="shared" ref="F84:K85" si="80">SUMIFS(F$21:F$33,$C$21:$C$33,$C84,$D$21:$D$33,$B84)</f>
+        <v>-2.7888672409899904</v>
+      </c>
+      <c r="G84" s="5">
+        <f t="shared" si="80"/>
+        <v>-5.1356533447099606</v>
+      </c>
+      <c r="H84" s="5">
+        <f t="shared" si="80"/>
+        <v>0.17035754696997071</v>
+      </c>
+      <c r="I84" s="5">
+        <f t="shared" si="80"/>
+        <v>5.7348173497199708</v>
+      </c>
+      <c r="J84" s="5">
+        <f t="shared" si="80"/>
+        <v>-14.948967558399902</v>
+      </c>
+      <c r="K84" s="5">
+        <f t="shared" si="80"/>
+        <v>42.355572657360106</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <f>C84</f>
+        <v>NN 5</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5">
+        <f>SUMIFS(E$21:E$33,$C$21:$C$33,$C85,$D$21:$D$33,$B85)</f>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="F85" s="5">
+        <f t="shared" si="80"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="G85" s="5">
+        <f t="shared" si="80"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="H85" s="5">
+        <f t="shared" si="80"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="I85" s="5">
+        <f t="shared" si="80"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="J85" s="5">
+        <f t="shared" si="80"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="K85" s="5">
+        <f t="shared" si="80"/>
+        <v>7.1260407341564793</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C86" s="5" t="str">
+        <f>C79</f>
         <v>SCM</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="5">
-        <f>(E$62-SUMIFS(E$62:E$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$63))/SUMIFS(E$62:E$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$64)</f>
+      <c r="E86" s="5">
+        <f>(E$77-SUMIFS(E$77:E$83,$C$77:$C$83,$C86,$B$77:$B$83,$B$78))/SUMIFS(E$77:E$83,$C$77:$C$83,$C86,$B$77:$B$83,$B$79)</f>
         <v>-0.4215478859804439</v>
       </c>
-      <c r="F69" s="5">
-        <f t="shared" ref="F69:K69" si="60">(F$62-SUMIFS(F$62:F$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$63))/SUMIFS(F$62:F$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$64)</f>
+      <c r="F86" s="5">
+        <f t="shared" ref="F86:K86" si="81">(F$77-SUMIFS(F$77:F$83,$C$77:$C$83,$C86,$B$77:$B$83,$B$78))/SUMIFS(F$77:F$83,$C$77:$C$83,$C86,$B$77:$B$83,$B$79)</f>
         <v>-0.47044415330956857</v>
       </c>
-      <c r="G69" s="5">
-        <f t="shared" si="60"/>
+      <c r="G86" s="5">
+        <f t="shared" si="81"/>
         <v>-0.59175973607778476</v>
       </c>
-      <c r="H69" s="5">
-        <f t="shared" si="60"/>
+      <c r="H86" s="5">
+        <f t="shared" si="81"/>
         <v>-0.65618655151211625</v>
       </c>
-      <c r="I69" s="5">
-        <f t="shared" si="60"/>
+      <c r="I86" s="5">
+        <f t="shared" si="81"/>
         <v>-0.71860820860444363</v>
       </c>
-      <c r="J69" s="5">
-        <f t="shared" si="60"/>
+      <c r="J86" s="5">
+        <f t="shared" si="81"/>
         <v>-0.47465384080291811</v>
       </c>
-      <c r="K69" s="5">
-        <f t="shared" si="60"/>
+      <c r="K86" s="5">
+        <f t="shared" si="81"/>
         <v>-0.78858822204495327</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C70" s="5" t="str">
-        <f>C66</f>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C87" s="5" t="str">
+        <f>C81</f>
         <v>NN 1</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="5">
-        <f t="shared" ref="E70:K71" si="61">(E$62-SUMIFS(E$62:E$68,$C$62:$C$68,$C70,$B$62:$B$68,$B$63))/SUMIFS(E$62:E$68,$C$62:$C$68,$C70,$B$62:$B$68,$B$64)</f>
+      <c r="E87" s="5">
+        <f t="shared" ref="E87:K88" si="82">(E$77-SUMIFS(E$77:E$83,$C$77:$C$83,$C87,$B$77:$B$83,$B$78))/SUMIFS(E$77:E$83,$C$77:$C$83,$C87,$B$77:$B$83,$B$79)</f>
         <v>-0.19248903589429534</v>
       </c>
-      <c r="F70" s="5">
-        <f t="shared" si="61"/>
+      <c r="F87" s="5">
+        <f t="shared" si="82"/>
         <v>8.8510468130144071E-2</v>
       </c>
-      <c r="G70" s="5">
-        <f t="shared" si="61"/>
+      <c r="G87" s="5">
+        <f t="shared" si="82"/>
         <v>-0.77234405733628408</v>
       </c>
-      <c r="H70" s="5">
-        <f t="shared" si="61"/>
+      <c r="H87" s="5">
+        <f t="shared" si="82"/>
         <v>-0.92194926705328872</v>
       </c>
-      <c r="I70" s="5">
-        <f t="shared" si="61"/>
+      <c r="I87" s="5">
+        <f t="shared" si="82"/>
         <v>-1.4866310265539286</v>
       </c>
-      <c r="J70" s="5">
-        <f t="shared" si="61"/>
+      <c r="J87" s="5">
+        <f t="shared" si="82"/>
         <v>0.70029662514793245</v>
       </c>
-      <c r="K70" s="5">
-        <f t="shared" si="61"/>
+      <c r="K87" s="5">
+        <f t="shared" si="82"/>
         <v>-3.6212347963447793</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C71" s="5" t="str">
-        <f>C68</f>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C88" s="5" t="str">
+        <f>C83</f>
         <v>NN 2</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="5">
-        <f t="shared" si="61"/>
+      <c r="E88" s="5">
+        <f t="shared" si="82"/>
         <v>-1.0189825897003946E-2</v>
       </c>
-      <c r="F71" s="5">
-        <f t="shared" si="61"/>
+      <c r="F88" s="5">
+        <f t="shared" si="82"/>
         <v>1.6819693717576805</v>
       </c>
-      <c r="G71" s="5">
-        <f t="shared" si="61"/>
+      <c r="G88" s="5">
+        <f t="shared" si="82"/>
         <v>-0.49944179369768033</v>
       </c>
-      <c r="H71" s="5">
-        <f t="shared" si="61"/>
+      <c r="H88" s="5">
+        <f t="shared" si="82"/>
         <v>-2.3447144386152949</v>
       </c>
-      <c r="I71" s="5">
-        <f t="shared" si="61"/>
+      <c r="I88" s="5">
+        <f t="shared" si="82"/>
         <v>-4.2501172905101425</v>
       </c>
-      <c r="J71" s="5">
-        <f t="shared" si="61"/>
+      <c r="J88" s="5">
+        <f t="shared" si="82"/>
         <v>-4.9960670992536746</v>
       </c>
-      <c r="K71" s="5">
-        <f t="shared" si="61"/>
+      <c r="K88" s="5">
+        <f t="shared" si="82"/>
         <v>-9.1441852369188261</v>
       </c>
     </row>
-    <row r="74" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="D74" s="6" t="s">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C89" s="5" t="str">
+        <f>C84</f>
+        <v>NN 5</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="5">
+        <f>(E$77-SUMIFS(E$77:E$85,$C$77:$C$85,$C89,$B$77:$B$85,$B$78))/SUMIFS(E$77:E$85,$C$77:$C$85,$C89,$B$77:$B$85,$B$79)</f>
+        <v>-0.92660222056388108</v>
+      </c>
+      <c r="F89" s="5">
+        <f t="shared" ref="F89:K89" si="83">(F$77-SUMIFS(F$77:F$85,$C$77:$C$85,$C89,$B$77:$B$85,$B$78))/SUMIFS(F$77:F$85,$C$77:$C$85,$C89,$B$77:$B$85,$B$79)</f>
+        <v>0.77974573996025753</v>
+      </c>
+      <c r="G89" s="5">
+        <f t="shared" si="83"/>
+        <v>1.1090711243172924</v>
+      </c>
+      <c r="H89" s="5">
+        <f t="shared" si="83"/>
+        <v>0.36447660267118337</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="83"/>
+        <v>-0.41638615272656188</v>
+      </c>
+      <c r="J89" s="5">
+        <f t="shared" si="83"/>
+        <v>2.4861772313105974</v>
+      </c>
+      <c r="K89" s="5">
+        <f t="shared" si="83"/>
+        <v>-5.5553906397637789</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D91" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E91" s="6">
         <v>2015</v>
       </c>
-      <c r="F74" s="6">
-        <f>E74+1</f>
+      <c r="F91" s="6">
+        <f>E91+1</f>
         <v>2016</v>
       </c>
-      <c r="G74" s="6">
-        <f t="shared" ref="G74:K74" si="62">F74+1</f>
+      <c r="G91" s="6">
+        <f t="shared" ref="G91:K91" si="84">F91+1</f>
         <v>2017</v>
       </c>
-      <c r="H74" s="6">
-        <f t="shared" si="62"/>
+      <c r="H91" s="6">
+        <f t="shared" si="84"/>
         <v>2018</v>
       </c>
-      <c r="I74" s="6">
-        <f t="shared" si="62"/>
+      <c r="I91" s="6">
+        <f t="shared" si="84"/>
         <v>2019</v>
       </c>
-      <c r="J74" s="6">
-        <f t="shared" si="62"/>
+      <c r="J91" s="6">
+        <f t="shared" si="84"/>
         <v>2020</v>
       </c>
-      <c r="K74" s="6">
-        <f t="shared" si="62"/>
+      <c r="K91" s="6">
+        <f t="shared" si="84"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D75" s="5" t="str">
-        <f>C69</f>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D92" s="5" t="str">
+        <f>C86</f>
         <v>SCM</v>
       </c>
-      <c r="E75" s="5">
-        <f>_xlfn.NORM.DIST(E$62,SUMIFS(E$62:E$68,$C$62:$C$68,$D75,$B$62:$B$68,$B$63),SUMIFS(E$62:E$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="E92" s="5">
+        <f t="shared" ref="E92:K94" si="85">_xlfn.NORM.DIST(E$77,SUMIFS(E$77:E$83,$C$77:$C$83,$D92,$B$77:$B$83,$B$78),SUMIFS(E$77:E$83,$C$77:$C$83,$C86,$B$77:$B$83,$B$79),TRUE)</f>
         <v>0.33667752584576915</v>
       </c>
-      <c r="F75" s="5">
-        <f>_xlfn.NORM.DIST(F$62,SUMIFS(F$62:F$68,$C$62:$C$68,$D75,$B$62:$B$68,$B$63),SUMIFS(F$62:F$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="F92" s="5">
+        <f t="shared" si="85"/>
         <v>0.31901886253675243</v>
       </c>
-      <c r="G75" s="5">
-        <f>_xlfn.NORM.DIST(G$62,SUMIFS(G$62:G$68,$C$62:$C$68,$D75,$B$62:$B$68,$B$63),SUMIFS(G$62:G$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="G92" s="5">
+        <f t="shared" si="85"/>
         <v>0.27700574441411685</v>
       </c>
-      <c r="H75" s="5">
-        <f>_xlfn.NORM.DIST(H$62,SUMIFS(H$62:H$68,$C$62:$C$68,$D75,$B$62:$B$68,$B$63),SUMIFS(H$62:H$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="H92" s="5">
+        <f t="shared" si="85"/>
         <v>0.25585205040173631</v>
       </c>
-      <c r="I75" s="5">
-        <f>_xlfn.NORM.DIST(I$62,SUMIFS(I$62:I$68,$C$62:$C$68,$D75,$B$62:$B$68,$B$63),SUMIFS(I$62:I$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="I92" s="5">
+        <f t="shared" si="85"/>
         <v>0.23619117712805077</v>
       </c>
-      <c r="J75" s="5">
-        <f>_xlfn.NORM.DIST(J$62,SUMIFS(J$62:J$68,$C$62:$C$68,$D75,$B$62:$B$68,$B$63),SUMIFS(J$62:J$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="J92" s="5">
+        <f t="shared" si="85"/>
         <v>0.31751686181884753</v>
       </c>
-      <c r="K75" s="5">
-        <f>_xlfn.NORM.DIST(K$62,SUMIFS(K$62:K$68,$C$62:$C$68,$D75,$B$62:$B$68,$B$63),SUMIFS(K$62:K$68,$C$62:$C$68,$C69,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="K92" s="5">
+        <f t="shared" si="85"/>
         <v>0.2151763584998892</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D76" s="5" t="str">
-        <f>C70</f>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D93" s="5" t="str">
+        <f>C87</f>
         <v>NN 1</v>
       </c>
-      <c r="E76" s="5">
-        <f>_xlfn.NORM.DIST(E$62,SUMIFS(E$62:E$68,$C$62:$C$68,$D76,$B$62:$B$68,$B$63),SUMIFS(E$62:E$68,$C$62:$C$68,$C70,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="E93" s="5">
+        <f t="shared" si="85"/>
         <v>0.42367957770835424</v>
       </c>
-      <c r="F76" s="5">
-        <f>_xlfn.NORM.DIST(F$62,SUMIFS(F$62:F$68,$C$62:$C$68,$D76,$B$62:$B$68,$B$63),SUMIFS(F$62:F$68,$C$62:$C$68,$C70,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="F93" s="5">
+        <f t="shared" si="85"/>
         <v>0.53526451768519256</v>
       </c>
-      <c r="G76" s="5">
-        <f>_xlfn.NORM.DIST(G$62,SUMIFS(G$62:G$68,$C$62:$C$68,$D76,$B$62:$B$68,$B$63),SUMIFS(G$62:G$68,$C$62:$C$68,$C70,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="G93" s="5">
+        <f t="shared" si="85"/>
         <v>0.21995533891312216</v>
       </c>
-      <c r="H76" s="5">
-        <f>_xlfn.NORM.DIST(H$62,SUMIFS(H$62:H$68,$C$62:$C$68,$D76,$B$62:$B$68,$B$63),SUMIFS(H$62:H$68,$C$62:$C$68,$C70,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="H93" s="5">
+        <f t="shared" si="85"/>
         <v>0.17827751957053198</v>
       </c>
-      <c r="I76" s="5">
-        <f>_xlfn.NORM.DIST(I$62,SUMIFS(I$62:I$68,$C$62:$C$68,$D76,$B$62:$B$68,$B$63),SUMIFS(I$62:I$68,$C$62:$C$68,$C70,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="I93" s="5">
+        <f t="shared" si="85"/>
         <v>6.8556144299812924E-2</v>
       </c>
-      <c r="J76" s="5">
-        <f>_xlfn.NORM.DIST(J$62,SUMIFS(J$62:J$68,$C$62:$C$68,$D76,$B$62:$B$68,$B$63),SUMIFS(J$62:J$68,$C$62:$C$68,$C70,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="J93" s="5">
+        <f t="shared" si="85"/>
         <v>0.75812896052946854</v>
       </c>
-      <c r="K76" s="5">
-        <f>_xlfn.NORM.DIST(K$62,SUMIFS(K$62:K$68,$C$62:$C$68,$D76,$B$62:$B$68,$B$63),SUMIFS(K$62:K$68,$C$62:$C$68,$C70,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="K93" s="5">
+        <f t="shared" si="85"/>
         <v>1.4660013221910013E-4</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D77" s="5" t="str">
-        <f>C71</f>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D94" s="5" t="str">
+        <f>C88</f>
         <v>NN 2</v>
       </c>
-      <c r="E77" s="5">
-        <f>_xlfn.NORM.DIST(E$62,SUMIFS(E$62:E$68,$C$62:$C$68,$D77,$B$62:$B$68,$B$63),SUMIFS(E$62:E$68,$C$62:$C$68,$C71,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="E94" s="5">
+        <f t="shared" si="85"/>
         <v>0.49593491796785089</v>
       </c>
-      <c r="F77" s="5">
-        <f>_xlfn.NORM.DIST(F$62,SUMIFS(F$62:F$68,$C$62:$C$68,$D77,$B$62:$B$68,$B$63),SUMIFS(F$62:F$68,$C$62:$C$68,$C71,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="F94" s="5">
+        <f t="shared" si="85"/>
         <v>0.95371261038205335</v>
       </c>
-      <c r="G77" s="5">
-        <f>_xlfn.NORM.DIST(G$62,SUMIFS(G$62:G$68,$C$62:$C$68,$D77,$B$62:$B$68,$B$63),SUMIFS(G$62:G$68,$C$62:$C$68,$C71,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="G94" s="5">
+        <f t="shared" si="85"/>
         <v>0.3087340912279436</v>
       </c>
-      <c r="H77" s="5">
-        <f>_xlfn.NORM.DIST(H$62,SUMIFS(H$62:H$68,$C$62:$C$68,$D77,$B$62:$B$68,$B$63),SUMIFS(H$62:H$68,$C$62:$C$68,$C71,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="H94" s="5">
+        <f t="shared" si="85"/>
         <v>9.5208286132710158E-3</v>
       </c>
-      <c r="I77" s="5">
-        <f>_xlfn.NORM.DIST(I$62,SUMIFS(I$62:I$68,$C$62:$C$68,$D77,$B$62:$B$68,$B$63),SUMIFS(I$62:I$68,$C$62:$C$68,$C71,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="I94" s="5">
+        <f t="shared" si="85"/>
         <v>1.0682930226487439E-5</v>
       </c>
-      <c r="J77" s="5">
-        <f>_xlfn.NORM.DIST(J$62,SUMIFS(J$62:J$68,$C$62:$C$68,$D77,$B$62:$B$68,$B$63),SUMIFS(J$62:J$68,$C$62:$C$68,$C71,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="J94" s="5">
+        <f t="shared" si="85"/>
         <v>2.9255654592971176E-7</v>
       </c>
-      <c r="K77" s="5">
-        <f>_xlfn.NORM.DIST(K$62,SUMIFS(K$62:K$68,$C$62:$C$68,$D77,$B$62:$B$68,$B$63),SUMIFS(K$62:K$68,$C$62:$C$68,$C71,$B$62:$B$68,$B$64),TRUE)</f>
+      <c r="K94" s="5">
+        <f t="shared" si="85"/>
         <v>3.0040518818754436E-20</v>
       </c>
     </row>
-    <row r="80" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D95" s="5" t="str">
+        <f>C89</f>
+        <v>NN 5</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+    </row>
+    <row r="97" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E97" s="6">
         <v>2015</v>
       </c>
-      <c r="F80" s="6">
-        <f>E80+1</f>
+      <c r="F97" s="6">
+        <f>E97+1</f>
         <v>2016</v>
       </c>
-      <c r="G80" s="6">
-        <f t="shared" ref="G80:K80" si="63">F80+1</f>
+      <c r="G97" s="6">
+        <f t="shared" ref="G97:K97" si="86">F97+1</f>
         <v>2017</v>
       </c>
-      <c r="H80" s="6">
-        <f t="shared" si="63"/>
+      <c r="H97" s="6">
+        <f t="shared" si="86"/>
         <v>2018</v>
       </c>
-      <c r="I80" s="6">
-        <f t="shared" si="63"/>
+      <c r="I97" s="6">
+        <f t="shared" si="86"/>
         <v>2019</v>
       </c>
-      <c r="J80" s="6">
-        <f t="shared" si="63"/>
+      <c r="J97" s="6">
+        <f t="shared" si="86"/>
         <v>2020</v>
       </c>
-      <c r="K80" s="6">
-        <f t="shared" si="63"/>
+      <c r="K97" s="6">
+        <f t="shared" si="86"/>
         <v>2021</v>
       </c>
-      <c r="L80" s="6" t="s">
+      <c r="L97" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M80" s="6" t="s">
+      <c r="M97" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N80" s="6" t="s">
+      <c r="N97" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O80" s="6" t="s">
+      <c r="O97" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R80" s="6" t="s">
+      <c r="R97" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S80" s="6" t="s">
+      <c r="S97" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T80" s="6" t="s">
-        <v>23</v>
+      <c r="T97" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B81" s="5">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B98" s="5">
         <v>2016</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C98" s="5">
         <v>2019</v>
       </c>
-      <c r="D81" s="5" t="str">
-        <f>D75</f>
+      <c r="D98" s="5" t="str">
+        <f>D92</f>
         <v>SCM</v>
       </c>
-      <c r="E81" s="5">
-        <f>SUMIFS(E$62:E$68,$B$62:$B$68,$B$63,$C$62:$C$68,$D81)*(IF(AND(E$80&gt;=$B81,E$80&lt;=$C81),1,0))</f>
+      <c r="E98" s="5">
+        <f>SUMIFS(E$77:E$85,$B$77:$B$85,$B$78,$C$77:$C$85,$D98)*(IF(AND(E$97&gt;=$B98,E$97&lt;=$C98),1,0))</f>
         <v>0</v>
       </c>
-      <c r="F81" s="5">
-        <f t="shared" ref="F81:K86" si="64">SUMIFS(F$62:F$68,$B$62:$B$68,$B$63,$C$62:$C$68,$D81)*(IF(AND(F$80&gt;=$B81,F$80&lt;=$C81),1,0))</f>
+      <c r="F98" s="5">
+        <f t="shared" ref="F98:K101" si="87">SUMIFS(F$77:F$85,$B$77:$B$85,$B$78,$C$77:$C$85,$D98)*(IF(AND(F$97&gt;=$B98,F$97&lt;=$C98),1,0))</f>
         <v>105.29855880705004</v>
       </c>
-      <c r="G81" s="5">
-        <f t="shared" si="64"/>
+      <c r="G98" s="5">
+        <f t="shared" si="87"/>
         <v>131.73867708521996</v>
       </c>
-      <c r="H81" s="5">
-        <f t="shared" si="64"/>
+      <c r="H98" s="5">
+        <f t="shared" si="87"/>
         <v>145.78017597183984</v>
       </c>
-      <c r="I81" s="5">
-        <f t="shared" si="64"/>
+      <c r="I98" s="5">
+        <f t="shared" si="87"/>
         <v>159.38466072953003</v>
       </c>
-      <c r="J81" s="5">
-        <f t="shared" si="64"/>
+      <c r="J98" s="5">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="K81" s="5">
-        <f t="shared" si="64"/>
+      <c r="K98" s="5">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="L81" s="5">
-        <f>SUM(E81:K81)/M81</f>
+      <c r="L98" s="5">
+        <f>SUM(E98:K98)/M98</f>
         <v>135.55051814840999</v>
       </c>
-      <c r="M81" s="5">
-        <f>C81-B81+1</f>
+      <c r="M98" s="5">
+        <f t="shared" ref="M98" si="88">C98-B98+1</f>
         <v>4</v>
       </c>
-      <c r="N81" s="5">
-        <f>SUMIFS($E$62:$E$71,$C$62:$C$71,D81,$D$62:$D$71,N$80)</f>
+      <c r="N98" s="5">
+        <f>SUMIFS($E$77:$E$88,$C$77:$C$88,D98,$D$77:$D$88,N$97)</f>
         <v>217.94494717703367</v>
       </c>
-      <c r="O81" s="5">
-        <f>O9</f>
+      <c r="O98" s="5">
+        <f>$O$9</f>
         <v>0.2003755267014509</v>
       </c>
-      <c r="R81" s="5" t="str">
-        <f>D81</f>
+      <c r="R98" s="5" t="str">
+        <f>D98</f>
         <v>SCM</v>
       </c>
-      <c r="S81" s="10">
-        <f>(L81-$O$6)/(N81/SQRT(M81))</f>
+      <c r="S98" s="9">
+        <f t="shared" ref="S98:S105" si="89">(L98-$O$6)/(N98/SQRT(M98))</f>
         <v>1.2184993247519569</v>
       </c>
-      <c r="T81" s="10">
-        <f>(L81-$O$6)/(O81/SQRT(M81))</f>
-        <v>1325.3403513892972</v>
+      <c r="T98" s="9">
+        <f>(I98-$O$6)/(N98/SQRT(1))</f>
+        <v>0.71860820860444363</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B82" s="5">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B99" s="5">
         <v>2016</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C99" s="5">
         <v>2019</v>
       </c>
-      <c r="D82" s="5" t="str">
-        <f t="shared" ref="D82:D83" si="65">D76</f>
+      <c r="D99" s="5" t="str">
+        <f t="shared" ref="D99:D101" si="90">D93</f>
         <v>NN 1</v>
       </c>
-      <c r="E82" s="5">
-        <f t="shared" ref="E82:K86" si="66">SUMIFS(E$62:E$68,$B$62:$B$68,$B$63,$C$62:$C$68,$D82)*(IF(AND(E$80&gt;=$B82,E$80&lt;=$C82),1,0))</f>
+      <c r="E99" s="5">
+        <f t="shared" ref="E99:E101" si="91">SUMIFS(E$77:E$85,$B$77:$B$85,$B$78,$C$77:$C$85,$D99)*(IF(AND(E$97&gt;=$B99,E$97&lt;=$C99),1,0))</f>
         <v>0</v>
       </c>
-      <c r="F82" s="5">
-        <f t="shared" si="64"/>
+      <c r="F99" s="5">
+        <f t="shared" si="87"/>
         <v>1.9375075688100587</v>
       </c>
-      <c r="G82" s="5">
-        <f t="shared" si="64"/>
+      <c r="G99" s="5">
+        <f t="shared" si="87"/>
         <v>10.01132030769995</v>
       </c>
-      <c r="H82" s="5">
-        <f t="shared" si="64"/>
+      <c r="H99" s="5">
+        <f t="shared" si="87"/>
         <v>11.41444291702002</v>
       </c>
-      <c r="I82" s="5">
-        <f t="shared" si="64"/>
+      <c r="I99" s="5">
+        <f t="shared" si="87"/>
         <v>16.710500088590088</v>
       </c>
-      <c r="J82" s="5">
-        <f t="shared" si="64"/>
+      <c r="J99" s="5">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="K82" s="5">
-        <f t="shared" si="64"/>
+      <c r="K99" s="5">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="L82" s="5">
-        <f t="shared" ref="L82:L86" si="67">SUM(E82:K82)/M82</f>
+      <c r="L99" s="5">
+        <f t="shared" ref="L99:L101" si="92">SUM(E99:K99)/M99</f>
         <v>10.018442720530029</v>
       </c>
-      <c r="M82" s="5">
-        <f>C82-B82+1</f>
+      <c r="M99" s="5">
+        <f t="shared" ref="M99:M101" si="93">C99-B99+1</f>
         <v>4</v>
       </c>
-      <c r="N82" s="5">
-        <f t="shared" ref="N82:O86" si="68">SUMIFS($E$62:$E$71,$C$62:$C$71,D82,$D$62:$D$71,N$80)</f>
+      <c r="N99" s="5">
+        <f t="shared" ref="N99:N101" si="94">SUMIFS($E$77:$E$88,$C$77:$C$88,D99,$D$77:$D$88,N$97)</f>
         <v>9.3788352155265002</v>
       </c>
-      <c r="O82" s="5">
-        <f>O81</f>
+      <c r="O99" s="5">
+        <f t="shared" ref="O99:O105" si="95">$O$9</f>
         <v>0.2003755267014509</v>
       </c>
-      <c r="R82" s="5" t="str">
-        <f>D82</f>
+      <c r="R99" s="5" t="str">
+        <f>D99</f>
         <v>NN 1</v>
       </c>
-      <c r="S82" s="10">
-        <f>(L82-$O$6)/(N82/SQRT(M82))</f>
+      <c r="S99" s="9">
+        <f t="shared" si="89"/>
         <v>1.5462069414066786</v>
       </c>
-      <c r="T82" s="10">
-        <f t="shared" ref="T82:T83" si="69">(L82-$O$6)/(O82/SQRT(M82))</f>
-        <v>72.372212072401112</v>
+      <c r="T99" s="9">
+        <f t="shared" ref="T99:T105" si="96">(I99-$O$6)/(N99/SQRT(1))</f>
+        <v>1.4866310265539286</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B83" s="5">
-        <f>B82</f>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B100" s="5">
         <v>2016</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C100" s="5">
         <v>2019</v>
       </c>
-      <c r="D83" s="5" t="str">
-        <f t="shared" si="65"/>
+      <c r="D100" s="5" t="str">
+        <f t="shared" si="90"/>
         <v>NN 2</v>
       </c>
-      <c r="E83" s="5">
-        <f t="shared" si="66"/>
+      <c r="E100" s="5">
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="F83" s="5">
-        <f t="shared" si="64"/>
+      <c r="F100" s="5">
+        <f t="shared" si="87"/>
         <v>-16.603090936370116</v>
       </c>
-      <c r="G83" s="5">
-        <f t="shared" si="64"/>
+      <c r="G100" s="5">
+        <f t="shared" si="87"/>
         <v>8.5195500907900392</v>
       </c>
-      <c r="H83" s="5">
-        <f t="shared" si="64"/>
+      <c r="H100" s="5">
+        <f t="shared" si="87"/>
         <v>29.770987229109863</v>
       </c>
-      <c r="I83" s="5">
-        <f t="shared" si="64"/>
+      <c r="I100" s="5">
+        <f t="shared" si="87"/>
         <v>51.714925455120117</v>
       </c>
-      <c r="J83" s="5">
-        <f t="shared" si="64"/>
+      <c r="J100" s="5">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="K83" s="5">
-        <f t="shared" si="64"/>
+      <c r="K100" s="5">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="L83" s="5">
-        <f t="shared" si="67"/>
+      <c r="L100" s="5">
+        <f t="shared" si="92"/>
         <v>18.350592959662478</v>
       </c>
-      <c r="M83" s="5">
-        <f>C83-B83+1</f>
+      <c r="M100" s="5">
+        <f t="shared" si="93"/>
         <v>4</v>
       </c>
-      <c r="N83" s="5">
-        <f t="shared" si="68"/>
+      <c r="N100" s="5">
+        <f t="shared" si="94"/>
         <v>11.516692233449673</v>
       </c>
-      <c r="O83" s="5">
-        <f t="shared" ref="O83:O86" si="70">O82</f>
+      <c r="O100" s="5">
+        <f t="shared" si="95"/>
         <v>0.2003755267014509</v>
       </c>
-      <c r="R83" s="5" t="str">
-        <f>D83</f>
+      <c r="R100" s="5" t="str">
+        <f>D100</f>
         <v>NN 2</v>
       </c>
-      <c r="S83" s="10">
-        <f>(L83-$O$6)/(N83/SQRT(M83))</f>
+      <c r="S100" s="9">
+        <f t="shared" si="89"/>
         <v>2.7061520755327186</v>
       </c>
-      <c r="T83" s="10">
-        <f t="shared" si="69"/>
-        <v>155.5375604190275</v>
+      <c r="T100" s="9">
+        <f t="shared" si="96"/>
+        <v>4.2501172905101425</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B84" s="5">
-        <f t="shared" ref="B84:B86" si="71">B83</f>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B101" s="5">
         <v>2016</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C101" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D101" s="5" t="str">
+        <f t="shared" si="90"/>
+        <v>NN 5</v>
+      </c>
+      <c r="E101" s="5">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" si="87"/>
+        <v>-2.7888672409899904</v>
+      </c>
+      <c r="G101" s="5">
+        <f t="shared" si="87"/>
+        <v>-5.1356533447099606</v>
+      </c>
+      <c r="H101" s="5">
+        <f t="shared" si="87"/>
+        <v>0.17035754696997071</v>
+      </c>
+      <c r="I101" s="5">
+        <f t="shared" si="87"/>
+        <v>5.7348173497199708</v>
+      </c>
+      <c r="J101" s="5">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="5">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="5">
+        <f t="shared" si="92"/>
+        <v>-0.50483642225250236</v>
+      </c>
+      <c r="M101" s="5">
+        <f t="shared" si="93"/>
+        <v>4</v>
+      </c>
+      <c r="N101" s="5">
+        <f t="shared" si="94"/>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="O101" s="5">
+        <f t="shared" si="95"/>
+        <v>0.2003755267014509</v>
+      </c>
+      <c r="R101" s="5" t="str">
+        <f>D101</f>
+        <v>NN 5</v>
+      </c>
+      <c r="S101" s="9">
+        <f t="shared" si="89"/>
+        <v>-0.91845365711108573</v>
+      </c>
+      <c r="T101" s="9">
+        <f t="shared" si="96"/>
+        <v>0.41638615272656188</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B102" s="5">
+        <f>B101</f>
+        <v>2016</v>
+      </c>
+      <c r="C102" s="5">
         <v>2021</v>
       </c>
-      <c r="D84" s="5" t="str">
-        <f>D81</f>
+      <c r="D102" s="5" t="str">
+        <f>D98</f>
         <v>SCM</v>
       </c>
-      <c r="E84" s="5">
-        <f t="shared" si="66"/>
+      <c r="E102" s="5">
+        <f>SUMIFS(E$77:E$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D102)*(IF(AND(E$97&gt;=$B102,E$97&lt;=$C102),1,0))</f>
         <v>0</v>
       </c>
-      <c r="F84" s="5">
-        <f t="shared" si="64"/>
+      <c r="F102" s="5">
+        <f>SUMIFS(F$77:F$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D102)*(IF(AND(F$97&gt;=$B102,F$97&lt;=$C102),1,0))</f>
         <v>105.29855880705004</v>
       </c>
-      <c r="G84" s="5">
-        <f t="shared" si="64"/>
+      <c r="G102" s="5">
+        <f>SUMIFS(G$77:G$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D102)*(IF(AND(G$97&gt;=$B102,G$97&lt;=$C102),1,0))</f>
         <v>131.73867708521996</v>
       </c>
-      <c r="H84" s="5">
-        <f t="shared" si="64"/>
+      <c r="H102" s="5">
+        <f>SUMIFS(H$77:H$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D102)*(IF(AND(H$97&gt;=$B102,H$97&lt;=$C102),1,0))</f>
         <v>145.78017597183984</v>
       </c>
-      <c r="I84" s="5">
-        <f t="shared" si="64"/>
+      <c r="I102" s="5">
+        <f>SUMIFS(I$77:I$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D102)*(IF(AND(I$97&gt;=$B102,I$97&lt;=$C102),1,0))</f>
         <v>159.38466072953003</v>
       </c>
-      <c r="J84" s="5">
-        <f t="shared" si="64"/>
+      <c r="J102" s="5">
+        <f>SUMIFS(J$77:J$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D102)*(IF(AND(J$97&gt;=$B102,J$97&lt;=$C102),1,0))</f>
         <v>106.21603892541992</v>
       </c>
-      <c r="K84" s="5">
-        <f t="shared" si="64"/>
+      <c r="K102" s="5">
+        <f>SUMIFS(K$77:K$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D102)*(IF(AND(K$97&gt;=$B102,K$97&lt;=$C102),1,0))</f>
         <v>174.63645106227003</v>
       </c>
-      <c r="L84" s="5">
-        <f t="shared" si="67"/>
+      <c r="L102" s="5">
+        <f>SUM(E102:K102)/M102</f>
         <v>137.17576043022166</v>
       </c>
-      <c r="M84" s="5">
-        <f>C84-B84+1</f>
+      <c r="M102" s="5">
+        <f>C102-B102+1</f>
         <v>6</v>
       </c>
-      <c r="N84" s="5">
-        <f t="shared" si="68"/>
+      <c r="N102" s="5">
+        <f>SUMIFS($E$77:$E$88,$C$77:$C$88,D102,$D$77:$D$88,N$97)</f>
         <v>217.94494717703367</v>
       </c>
-      <c r="O84" s="5">
-        <f t="shared" si="70"/>
+      <c r="O102" s="5">
+        <f t="shared" si="95"/>
         <v>0.2003755267014509</v>
       </c>
-      <c r="S84" s="10">
-        <f>(L84-$O$6)/(N84/SQRT(M84))</f>
+      <c r="R102" s="5" t="str">
+        <f>D102</f>
+        <v>SCM</v>
+      </c>
+      <c r="S102" s="9">
+        <f t="shared" si="89"/>
         <v>1.510616945122403</v>
       </c>
+      <c r="T102" s="9">
+        <f t="shared" si="96"/>
+        <v>0.71860820860444363</v>
+      </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B85" s="5">
-        <f t="shared" si="71"/>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="5">
+        <f>B102</f>
         <v>2016</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C103" s="5">
         <v>2021</v>
       </c>
-      <c r="D85" s="5" t="str">
-        <f t="shared" ref="D85:D86" si="72">D82</f>
+      <c r="D103" s="5" t="str">
+        <f>D99</f>
         <v>NN 1</v>
       </c>
-      <c r="E85" s="5">
-        <f t="shared" si="66"/>
+      <c r="E103" s="5">
+        <f>SUMIFS(E$77:E$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D103)*(IF(AND(E$97&gt;=$B103,E$97&lt;=$C103),1,0))</f>
         <v>0</v>
       </c>
-      <c r="F85" s="5">
-        <f t="shared" si="64"/>
+      <c r="F103" s="5">
+        <f>SUMIFS(F$77:F$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D103)*(IF(AND(F$97&gt;=$B103,F$97&lt;=$C103),1,0))</f>
         <v>1.9375075688100587</v>
       </c>
-      <c r="G85" s="5">
-        <f t="shared" si="64"/>
+      <c r="G103" s="5">
+        <f>SUMIFS(G$77:G$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D103)*(IF(AND(G$97&gt;=$B103,G$97&lt;=$C103),1,0))</f>
         <v>10.01132030769995</v>
       </c>
-      <c r="H85" s="5">
-        <f t="shared" si="64"/>
+      <c r="H103" s="5">
+        <f>SUMIFS(H$77:H$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D103)*(IF(AND(H$97&gt;=$B103,H$97&lt;=$C103),1,0))</f>
         <v>11.41444291702002</v>
       </c>
-      <c r="I85" s="5">
-        <f t="shared" si="64"/>
+      <c r="I103" s="5">
+        <f>SUMIFS(I$77:I$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D103)*(IF(AND(I$97&gt;=$B103,I$97&lt;=$C103),1,0))</f>
         <v>16.710500088590088</v>
       </c>
-      <c r="J85" s="5">
-        <f t="shared" si="64"/>
+      <c r="J103" s="5">
+        <f>SUMIFS(J$77:J$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D103)*(IF(AND(J$97&gt;=$B103,J$97&lt;=$C103),1,0))</f>
         <v>-3.800333985</v>
       </c>
-      <c r="K85" s="5">
-        <f t="shared" si="64"/>
+      <c r="K103" s="5">
+        <f>SUMIFS(K$77:K$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D103)*(IF(AND(K$97&gt;=$B103,K$97&lt;=$C103),1,0))</f>
         <v>36.730597095900144</v>
       </c>
-      <c r="L85" s="5">
-        <f t="shared" si="67"/>
+      <c r="L103" s="5">
+        <f>SUM(E103:K103)/M103</f>
         <v>12.16733899883671</v>
       </c>
-      <c r="M85" s="5">
-        <f>C85-B85+1</f>
+      <c r="M103" s="5">
+        <f>C103-B103+1</f>
         <v>6</v>
       </c>
-      <c r="N85" s="5">
-        <f t="shared" si="68"/>
+      <c r="N103" s="5">
+        <f>SUMIFS($E$77:$E$88,$C$77:$C$88,D103,$D$77:$D$88,N$97)</f>
         <v>9.3788352155265002</v>
       </c>
-      <c r="O85" s="5">
-        <f t="shared" si="70"/>
+      <c r="O103" s="5">
+        <f t="shared" si="95"/>
         <v>0.2003755267014509</v>
       </c>
-      <c r="S85" s="10">
-        <f>(L85-$O$6)/(N85/SQRT(M85))</f>
+      <c r="R103" s="5" t="str">
+        <f>D103</f>
+        <v>NN 1</v>
+      </c>
+      <c r="S103" s="9">
+        <f t="shared" si="89"/>
         <v>2.454940696007025</v>
       </c>
+      <c r="T103" s="9">
+        <f t="shared" si="96"/>
+        <v>1.4866310265539286</v>
+      </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B86" s="5">
-        <f t="shared" si="71"/>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B104" s="5">
+        <f>B103</f>
         <v>2016</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C104" s="5">
         <v>2021</v>
       </c>
-      <c r="D86" s="5" t="str">
-        <f t="shared" si="72"/>
+      <c r="D104" s="5" t="str">
+        <f>D100</f>
         <v>NN 2</v>
       </c>
-      <c r="E86" s="5">
-        <f t="shared" si="66"/>
+      <c r="E104" s="5">
+        <f>SUMIFS(E$77:E$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D104)*(IF(AND(E$97&gt;=$B104,E$97&lt;=$C104),1,0))</f>
         <v>0</v>
       </c>
-      <c r="F86" s="5">
-        <f t="shared" si="64"/>
+      <c r="F104" s="5">
+        <f>SUMIFS(F$77:F$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D104)*(IF(AND(F$97&gt;=$B104,F$97&lt;=$C104),1,0))</f>
         <v>-16.603090936370116</v>
       </c>
-      <c r="G86" s="5">
-        <f t="shared" si="64"/>
+      <c r="G104" s="5">
+        <f>SUMIFS(G$77:G$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D104)*(IF(AND(G$97&gt;=$B104,G$97&lt;=$C104),1,0))</f>
         <v>8.5195500907900392</v>
       </c>
-      <c r="H86" s="5">
-        <f t="shared" si="64"/>
+      <c r="H104" s="5">
+        <f>SUMIFS(H$77:H$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D104)*(IF(AND(H$97&gt;=$B104,H$97&lt;=$C104),1,0))</f>
         <v>29.770987229109863</v>
       </c>
-      <c r="I86" s="5">
-        <f t="shared" si="64"/>
+      <c r="I104" s="5">
+        <f>SUMIFS(I$77:I$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D104)*(IF(AND(I$97&gt;=$B104,I$97&lt;=$C104),1,0))</f>
         <v>51.714925455120117</v>
       </c>
-      <c r="J86" s="5">
-        <f t="shared" si="64"/>
+      <c r="J104" s="5">
+        <f>SUMIFS(J$77:J$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D104)*(IF(AND(J$97&gt;=$B104,J$97&lt;=$C104),1,0))</f>
         <v>60.305799824020021</v>
       </c>
-      <c r="K86" s="5">
-        <f t="shared" si="64"/>
+      <c r="K104" s="5">
+        <f>SUMIFS(K$77:K$83,$B$77:$B$83,$B$78,$C$77:$C$83,$D104)*(IF(AND(K$97&gt;=$B104,K$97&lt;=$C104),1,0))</f>
         <v>108.0783997635</v>
       </c>
-      <c r="L86" s="5">
-        <f t="shared" si="67"/>
+      <c r="L104" s="5">
+        <f>SUM(E104:K104)/M104</f>
         <v>40.297761904361657</v>
       </c>
-      <c r="M86" s="5">
-        <f>C86-B86+1</f>
+      <c r="M104" s="5">
+        <f>C104-B104+1</f>
         <v>6</v>
       </c>
-      <c r="N86" s="5">
-        <f t="shared" si="68"/>
+      <c r="N104" s="5">
+        <f>SUMIFS($E$77:$E$88,$C$77:$C$88,D104,$D$77:$D$88,N$97)</f>
         <v>11.516692233449673</v>
       </c>
-      <c r="O86" s="5">
-        <f t="shared" si="70"/>
+      <c r="O104" s="5">
+        <f t="shared" si="95"/>
         <v>0.2003755267014509</v>
       </c>
-      <c r="S86" s="10">
-        <f>(L86-$O$6)/(N86/SQRT(M86))</f>
+      <c r="R104" s="5" t="str">
+        <f>D104</f>
+        <v>NN 2</v>
+      </c>
+      <c r="S104" s="9">
+        <f t="shared" si="89"/>
         <v>7.9822977601130027</v>
       </c>
+      <c r="T104" s="9">
+        <f t="shared" si="96"/>
+        <v>4.2501172905101425</v>
+      </c>
     </row>
-    <row r="88" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="D88" s="6" t="s">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B105" s="5">
+        <f>B104</f>
+        <v>2016</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D105" s="5" t="str">
+        <f>C89</f>
+        <v>NN 5</v>
+      </c>
+      <c r="E105" s="5">
+        <f>SUMIFS(E$77:E$85,$B$77:$B$85,$B$78,$C$77:$C$85,$D105)*(IF(AND(E$97&gt;=$B105,E$97&lt;=$C105),1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" ref="F105:K105" si="97">SUMIFS(F$77:F$85,$B$77:$B$85,$B$78,$C$77:$C$85,$D105)*(IF(AND(F$97&gt;=$B105,F$97&lt;=$C105),1,0))</f>
+        <v>-2.7888672409899904</v>
+      </c>
+      <c r="G105" s="5">
+        <f t="shared" si="97"/>
+        <v>-5.1356533447099606</v>
+      </c>
+      <c r="H105" s="5">
+        <f t="shared" si="97"/>
+        <v>0.17035754696997071</v>
+      </c>
+      <c r="I105" s="5">
+        <f t="shared" si="97"/>
+        <v>5.7348173497199708</v>
+      </c>
+      <c r="J105" s="5">
+        <f t="shared" si="97"/>
+        <v>-14.948967558399902</v>
+      </c>
+      <c r="K105" s="5">
+        <f t="shared" si="97"/>
+        <v>42.355572657360106</v>
+      </c>
+      <c r="L105" s="5">
+        <f t="shared" ref="L105" si="98">SUM(E105:K105)/M105</f>
+        <v>4.2312099016583664</v>
+      </c>
+      <c r="M105" s="5">
+        <f t="shared" ref="M105" si="99">C105-B105+1</f>
+        <v>6</v>
+      </c>
+      <c r="N105" s="5">
+        <f t="shared" ref="N105" si="100">SUMIFS($E$77:$E$88,$C$77:$C$88,D105,$D$77:$D$88,N$97)</f>
+        <v>7.1260407341564793</v>
+      </c>
+      <c r="O105" s="5">
+        <f t="shared" si="95"/>
+        <v>0.2003755267014509</v>
+      </c>
+      <c r="R105" s="5" t="str">
+        <f>D105</f>
+        <v>NN 5</v>
+      </c>
+      <c r="S105" s="9">
+        <f t="shared" si="89"/>
+        <v>0.50308685629801042</v>
+      </c>
+      <c r="T105" s="9">
+        <f t="shared" si="96"/>
+        <v>0.41638615272656188</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="S106" s="11"/>
+    </row>
+    <row r="109" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="D109" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E109" s="6">
         <v>2015</v>
       </c>
-      <c r="F88" s="6">
-        <f>E88+1</f>
+      <c r="F109" s="6">
+        <f>E109+1</f>
         <v>2016</v>
       </c>
-      <c r="G88" s="6">
-        <f t="shared" ref="G88:K88" si="73">F88+1</f>
+      <c r="G109" s="6">
+        <f t="shared" ref="G109:K109" si="101">F109+1</f>
         <v>2017</v>
       </c>
-      <c r="H88" s="6">
-        <f t="shared" si="73"/>
+      <c r="H109" s="6">
+        <f t="shared" si="101"/>
         <v>2018</v>
       </c>
-      <c r="I88" s="6">
-        <f t="shared" si="73"/>
+      <c r="I109" s="6">
+        <f t="shared" si="101"/>
         <v>2019</v>
       </c>
-      <c r="J88" s="6">
-        <f t="shared" si="73"/>
+      <c r="J109" s="6">
+        <f t="shared" si="101"/>
         <v>2020</v>
       </c>
-      <c r="K88" s="6">
-        <f t="shared" si="73"/>
+      <c r="K109" s="6">
+        <f t="shared" si="101"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D89" s="5" t="str">
-        <f>D75</f>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D110" s="5" t="str">
+        <f>D92</f>
         <v>SCM</v>
       </c>
-      <c r="E89" s="5">
-        <f>(SUMIFS(E$62:E$68,$C$62:$C$68,$D89,$B$62:$B$68,$B$63)-$O$6)/SUMIFS(E$62:E$68,$C$62:$C$68,$D89,$B$62:$B$68,$B$64)</f>
+      <c r="E110" s="5">
+        <f>(SUMIFS(E$77:E$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(E$77:E$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$79)</f>
         <v>0.4215478859804439</v>
       </c>
-      <c r="F89" s="5">
-        <f t="shared" ref="F89:K91" si="74">(SUMIFS(F$62:F$68,$C$62:$C$68,$D89,$B$62:$B$68,$B$63)-$O$6)/SUMIFS(F$62:F$68,$C$62:$C$68,$D89,$B$62:$B$68,$B$64)</f>
+      <c r="F110" s="5">
+        <f>(SUMIFS(F$77:F$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(F$77:F$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$79)</f>
         <v>0.47044415330956857</v>
       </c>
-      <c r="G89" s="5">
-        <f t="shared" si="74"/>
+      <c r="G110" s="5">
+        <f>(SUMIFS(G$77:G$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(G$77:G$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$79)</f>
         <v>0.59175973607778476</v>
       </c>
-      <c r="H89" s="5">
-        <f t="shared" si="74"/>
+      <c r="H110" s="5">
+        <f>(SUMIFS(H$77:H$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(H$77:H$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$79)</f>
         <v>0.65618655151211625</v>
       </c>
-      <c r="I89" s="5">
-        <f t="shared" si="74"/>
+      <c r="I110" s="5">
+        <f>(SUMIFS(I$77:I$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(I$77:I$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$79)</f>
         <v>0.71860820860444363</v>
       </c>
-      <c r="J89" s="5">
-        <f t="shared" si="74"/>
+      <c r="J110" s="5">
+        <f>(SUMIFS(J$77:J$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(J$77:J$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$79)</f>
         <v>0.47465384080291811</v>
       </c>
-      <c r="K89" s="5">
-        <f t="shared" si="74"/>
+      <c r="K110" s="5">
+        <f>(SUMIFS(K$77:K$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(K$77:K$83,$C$77:$C$83,$D110,$B$77:$B$83,$B$79)</f>
         <v>0.78858822204495327</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D90" s="5" t="str">
-        <f t="shared" ref="D90:D91" si="75">D76</f>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D111" s="5" t="str">
+        <f>D93</f>
         <v>NN 1</v>
       </c>
-      <c r="E90" s="5">
-        <f t="shared" ref="E90:K91" si="76">(SUMIFS(E$62:E$68,$C$62:$C$68,$D90,$B$62:$B$68,$B$63)-$O$6)/SUMIFS(E$62:E$68,$C$62:$C$68,$D90,$B$62:$B$68,$B$64)</f>
+      <c r="E111" s="5">
+        <f>(SUMIFS(E$77:E$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(E$77:E$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$79)</f>
         <v>0.19248903589429534</v>
       </c>
-      <c r="F90" s="5">
-        <f t="shared" si="74"/>
+      <c r="F111" s="5">
+        <f>(SUMIFS(F$77:F$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(F$77:F$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$79)</f>
         <v>-8.8510468130144071E-2</v>
       </c>
-      <c r="G90" s="5">
-        <f t="shared" si="74"/>
+      <c r="G111" s="5">
+        <f>(SUMIFS(G$77:G$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(G$77:G$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$79)</f>
         <v>0.77234405733628408</v>
       </c>
-      <c r="H90" s="5">
-        <f t="shared" si="74"/>
+      <c r="H111" s="5">
+        <f>(SUMIFS(H$77:H$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(H$77:H$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$79)</f>
         <v>0.92194926705328872</v>
       </c>
-      <c r="I90" s="5">
-        <f t="shared" si="74"/>
+      <c r="I111" s="5">
+        <f>(SUMIFS(I$77:I$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(I$77:I$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$79)</f>
         <v>1.4866310265539286</v>
       </c>
-      <c r="J90" s="5">
-        <f t="shared" si="74"/>
+      <c r="J111" s="5">
+        <f>(SUMIFS(J$77:J$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(J$77:J$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$79)</f>
         <v>-0.70029662514793245</v>
       </c>
-      <c r="K90" s="5">
-        <f t="shared" si="74"/>
+      <c r="K111" s="5">
+        <f>(SUMIFS(K$77:K$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(K$77:K$83,$C$77:$C$83,$D111,$B$77:$B$83,$B$79)</f>
         <v>3.6212347963447793</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D91" s="5" t="str">
-        <f t="shared" si="75"/>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D112" s="5" t="str">
+        <f>D94</f>
         <v>NN 2</v>
       </c>
-      <c r="E91" s="5">
-        <f t="shared" si="76"/>
+      <c r="E112" s="5">
+        <f>(SUMIFS(E$77:E$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(E$77:E$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$79)</f>
         <v>1.0189825897003946E-2</v>
       </c>
-      <c r="F91" s="5">
-        <f t="shared" si="74"/>
+      <c r="F112" s="5">
+        <f>(SUMIFS(F$77:F$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(F$77:F$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$79)</f>
         <v>-1.6819693717576805</v>
       </c>
-      <c r="G91" s="5">
-        <f t="shared" si="74"/>
+      <c r="G112" s="5">
+        <f>(SUMIFS(G$77:G$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(G$77:G$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$79)</f>
         <v>0.49944179369768033</v>
       </c>
-      <c r="H91" s="5">
-        <f t="shared" si="74"/>
+      <c r="H112" s="5">
+        <f>(SUMIFS(H$77:H$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(H$77:H$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$79)</f>
         <v>2.3447144386152949</v>
       </c>
-      <c r="I91" s="5">
-        <f t="shared" si="74"/>
+      <c r="I112" s="5">
+        <f>(SUMIFS(I$77:I$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(I$77:I$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$79)</f>
         <v>4.2501172905101425</v>
       </c>
-      <c r="J91" s="5">
-        <f t="shared" si="74"/>
+      <c r="J112" s="5">
+        <f>(SUMIFS(J$77:J$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(J$77:J$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$79)</f>
         <v>4.9960670992536746</v>
       </c>
-      <c r="K91" s="5">
-        <f t="shared" si="74"/>
+      <c r="K112" s="5">
+        <f>(SUMIFS(K$77:K$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$78)-$O$6)/SUMIFS(K$77:K$83,$C$77:$C$83,$D112,$B$77:$B$83,$B$79)</f>
         <v>9.1441852369188261</v>
       </c>
     </row>
